--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_19_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_19_30.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2164793.412985629</v>
+        <v>2280409.802002534</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>212.2762171674061</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>263.3828147651828</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>263.3828147651795</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>227.225808618441</v>
       </c>
       <c r="G2" t="n">
-        <v>12.83532033605544</v>
+        <v>263.3828147651795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>115.3507887739396</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.7938006179689</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -716,7 +718,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>263.3828147651828</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -725,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>263.3828147651828</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -738,25 +740,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0233325848002</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>99.48524054500675</v>
+        <v>99.4852405450068</v>
       </c>
       <c r="I3" t="n">
-        <v>43.94290942807528</v>
+        <v>43.94290942807549</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,28 +785,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.19058462642715</v>
       </c>
       <c r="S3" t="n">
-        <v>147.1613215881889</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>98.63646030106622</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>89.16136478846906</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -817,10 +819,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -829,13 +831,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.8841809557937</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>63.58820500581817</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5277104718862</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>113.659092964036</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,10 +879,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>263.3828147651828</v>
+        <v>263.3828147651795</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -905,16 +907,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>19.98946990210314</v>
       </c>
       <c r="G5" t="n">
-        <v>12.83417464571001</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,19 +949,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>109.8280576942317</v>
+        <v>212.2897156032233</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="W5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -978,7 +980,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>122.7875717708227</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -987,13 +989,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>57.71425813185279</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>43.92180400150561</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1032,13 +1034,13 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1051,31 +1053,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>61.90919546454395</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>38.84316678192564</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>15.07219909888212</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T7" t="n">
         <v>223.2143458795659</v>
@@ -1114,10 +1116,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>129.7556361602831</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>64.88143122080268</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1184,16 +1186,16 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1297,7 +1299,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1306,7 +1308,7 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -1342,19 +1344,19 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>12.71573052651984</v>
+        <v>191.9165980458619</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1367,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1418,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695521</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1436,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1525,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>20.25102067617261</v>
       </c>
       <c r="C13" t="n">
-        <v>100.5140508960356</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1585,13 +1587,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1604,19 +1606,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1655,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695521</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1673,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1771,19 +1773,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1819,16 +1821,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>100.4429877184272</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>78.6882778203391</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1850,7 +1852,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -2002,10 +2004,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>128.1306638699257</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2014,7 +2016,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2056,16 +2058,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>25.7319404949734</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2078,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2251,10 +2253,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>98.79136808967668</v>
       </c>
       <c r="H22" t="n">
-        <v>26.13627195705825</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -2284,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2299,10 +2301,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2372,7 +2374,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881302</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2384,7 +2386,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="24">
@@ -2488,7 +2490,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2521,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>180.3302385618274</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>91.32784210538742</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2539,10 +2541,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2564,13 +2566,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,22 +2605,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695538</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2710,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>2.60701007315258</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>67.60860312451685</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2773,7 +2775,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2807,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2950,7 +2952,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>91.87132188694034</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2968,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3004,10 +3006,10 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3016,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>175.5375697851122</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3026,16 +3028,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3077,16 +3079,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695521</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3095,7 +3097,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3190,10 +3192,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3205,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,25 +3234,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>218.6610218294561</v>
       </c>
       <c r="V34" t="n">
-        <v>190.7368854541459</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3263,22 +3265,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3314,16 +3316,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695521</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3332,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3424,10 +3426,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -3436,13 +3438,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>75.00788511618104</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>50.06209150957608</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3478,13 +3480,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3500,16 +3502,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722623</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3551,16 +3553,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695521</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881302</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3569,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3658,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>133.5908209162928</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -3673,13 +3675,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,19 +3708,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>140.3829797864969</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3727,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3737,22 +3739,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3791,13 +3793,13 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3806,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3904,19 +3906,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3952,7 +3954,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>161.1945470524456</v>
+        <v>19.88691958258334</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4025,16 +4027,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4138,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>3.458642397731665</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4201,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>100.1928033809251</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>307.0243432043961</v>
+        <v>899.1940867193352</v>
       </c>
       <c r="C2" t="n">
-        <v>40.98109596683773</v>
+        <v>899.1940867193352</v>
       </c>
       <c r="D2" t="n">
-        <v>40.98109596683773</v>
+        <v>899.1940867193352</v>
       </c>
       <c r="E2" t="n">
-        <v>40.98109596683773</v>
+        <v>633.1508394817802</v>
       </c>
       <c r="F2" t="n">
-        <v>34.03559521763426</v>
+        <v>403.6298206752741</v>
       </c>
       <c r="G2" t="n">
-        <v>21.07062518121462</v>
+        <v>137.586573437719</v>
       </c>
       <c r="H2" t="n">
-        <v>21.07062518121462</v>
+        <v>137.586573437719</v>
       </c>
       <c r="I2" t="n">
-        <v>21.07062518121462</v>
+        <v>21.07062518121436</v>
       </c>
       <c r="J2" t="n">
-        <v>49.15993901467431</v>
+        <v>49.15993901467277</v>
       </c>
       <c r="K2" t="n">
-        <v>141.9970572935582</v>
+        <v>141.9970572935553</v>
       </c>
       <c r="L2" t="n">
-        <v>294.0714735960005</v>
+        <v>294.0714735959959</v>
       </c>
       <c r="M2" t="n">
-        <v>494.9530007796025</v>
+        <v>494.953000779596</v>
       </c>
       <c r="N2" t="n">
-        <v>703.6988094670389</v>
+        <v>703.6988094670305</v>
       </c>
       <c r="O2" t="n">
-        <v>887.4762960289024</v>
+        <v>887.4762960288919</v>
       </c>
       <c r="P2" t="n">
-        <v>1009.825128108076</v>
+        <v>1009.825128108064</v>
       </c>
       <c r="Q2" t="n">
-        <v>1053.531259060731</v>
+        <v>1053.531259060718</v>
       </c>
       <c r="R2" t="n">
-        <v>1053.531259060731</v>
+        <v>1053.531259060718</v>
       </c>
       <c r="S2" t="n">
-        <v>1053.531259060731</v>
+        <v>899.1940867193352</v>
       </c>
       <c r="T2" t="n">
-        <v>1053.531259060731</v>
+        <v>899.1940867193352</v>
       </c>
       <c r="U2" t="n">
-        <v>1053.531259060731</v>
+        <v>899.1940867193352</v>
       </c>
       <c r="V2" t="n">
-        <v>787.4880118231728</v>
+        <v>899.1940867193352</v>
       </c>
       <c r="W2" t="n">
-        <v>787.4880118231728</v>
+        <v>899.1940867193352</v>
       </c>
       <c r="X2" t="n">
-        <v>787.4880118231728</v>
+        <v>899.1940867193352</v>
       </c>
       <c r="Y2" t="n">
-        <v>521.4447645856144</v>
+        <v>899.1940867193352</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>637.0353342737388</v>
+        <v>314.8819540071952</v>
       </c>
       <c r="C3" t="n">
-        <v>462.5823049926118</v>
+        <v>314.8819540071952</v>
       </c>
       <c r="D3" t="n">
-        <v>462.5823049926118</v>
+        <v>165.947544345944</v>
       </c>
       <c r="E3" t="n">
-        <v>303.3448499871563</v>
+        <v>165.947544345944</v>
       </c>
       <c r="F3" t="n">
-        <v>303.3448499871563</v>
+        <v>165.947544345944</v>
       </c>
       <c r="G3" t="n">
         <v>165.947544345944</v>
       </c>
       <c r="H3" t="n">
-        <v>65.45740238129066</v>
+        <v>65.45740238129062</v>
       </c>
       <c r="I3" t="n">
-        <v>21.07062518121462</v>
+        <v>21.07062518121436</v>
       </c>
       <c r="J3" t="n">
-        <v>21.07062518121462</v>
+        <v>21.07062518121436</v>
       </c>
       <c r="K3" t="n">
-        <v>191.5864341124681</v>
+        <v>95.65665001371013</v>
       </c>
       <c r="L3" t="n">
-        <v>338.1990901420758</v>
+        <v>247.2442614226868</v>
       </c>
       <c r="M3" t="n">
-        <v>528.6460126286631</v>
+        <v>437.6911839092726</v>
       </c>
       <c r="N3" t="n">
-        <v>738.5421433767135</v>
+        <v>647.5873146573215</v>
       </c>
       <c r="O3" t="n">
-        <v>908.3363012748606</v>
+        <v>908.3363012748492</v>
       </c>
       <c r="P3" t="n">
-        <v>1025.27801606223</v>
+        <v>1025.278016062217</v>
       </c>
       <c r="Q3" t="n">
-        <v>1053.531259060731</v>
+        <v>1053.531259060718</v>
       </c>
       <c r="R3" t="n">
-        <v>1053.531259060731</v>
+        <v>1035.156931155236</v>
       </c>
       <c r="S3" t="n">
-        <v>904.883459476702</v>
+        <v>1035.156931155236</v>
       </c>
       <c r="T3" t="n">
-        <v>904.883459476702</v>
+        <v>1035.156931155236</v>
       </c>
       <c r="U3" t="n">
-        <v>805.2506712938068</v>
+        <v>1035.156931155236</v>
       </c>
       <c r="V3" t="n">
-        <v>805.2506712938068</v>
+        <v>945.0949465204187</v>
       </c>
       <c r="W3" t="n">
-        <v>805.2506712938068</v>
+        <v>690.8575897922171</v>
       </c>
       <c r="X3" t="n">
-        <v>805.2506712938068</v>
+        <v>690.8575897922171</v>
       </c>
       <c r="Y3" t="n">
-        <v>805.2506712938068</v>
+        <v>483.0972910272633</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>403.9876544537644</v>
+        <v>190.0068081091213</v>
       </c>
       <c r="C4" t="n">
-        <v>403.9876544537644</v>
+        <v>21.07062518121436</v>
       </c>
       <c r="D4" t="n">
-        <v>253.8710150414287</v>
+        <v>21.07062518121436</v>
       </c>
       <c r="E4" t="n">
-        <v>253.8710150414287</v>
+        <v>21.07062518121436</v>
       </c>
       <c r="F4" t="n">
-        <v>253.8710150414287</v>
+        <v>21.07062518121436</v>
       </c>
       <c r="G4" t="n">
-        <v>85.30113528810168</v>
+        <v>21.07062518121436</v>
       </c>
       <c r="H4" t="n">
-        <v>85.30113528810168</v>
+        <v>21.07062518121436</v>
       </c>
       <c r="I4" t="n">
-        <v>21.07062518121462</v>
+        <v>21.07062518121436</v>
       </c>
       <c r="J4" t="n">
-        <v>21.07062518121462</v>
+        <v>21.07062518121436</v>
       </c>
       <c r="K4" t="n">
-        <v>126.3277805481205</v>
+        <v>125.4984182940684</v>
       </c>
       <c r="L4" t="n">
-        <v>316.5471352504862</v>
+        <v>315.7177729964334</v>
       </c>
       <c r="M4" t="n">
-        <v>527.4958971570838</v>
+        <v>526.6665349030303</v>
       </c>
       <c r="N4" t="n">
-        <v>738.8633854210618</v>
+        <v>738.0340231670076</v>
       </c>
       <c r="O4" t="n">
-        <v>917.249813883639</v>
+        <v>917.249813883627</v>
       </c>
       <c r="P4" t="n">
-        <v>1047.079201097382</v>
+        <v>1047.079201097369</v>
       </c>
       <c r="Q4" t="n">
-        <v>1053.531259060731</v>
+        <v>1053.531259060718</v>
       </c>
       <c r="R4" t="n">
-        <v>924.7153898972097</v>
+        <v>1053.531259060718</v>
       </c>
       <c r="S4" t="n">
-        <v>924.7153898972097</v>
+        <v>1053.531259060718</v>
       </c>
       <c r="T4" t="n">
-        <v>924.7153898972097</v>
+        <v>938.7240944505805</v>
       </c>
       <c r="U4" t="n">
-        <v>924.7153898972097</v>
+        <v>938.7240944505805</v>
       </c>
       <c r="V4" t="n">
-        <v>670.0309016913228</v>
+        <v>684.0396062446937</v>
       </c>
       <c r="W4" t="n">
-        <v>403.9876544537644</v>
+        <v>417.9963590071386</v>
       </c>
       <c r="X4" t="n">
-        <v>403.9876544537644</v>
+        <v>190.0068081091213</v>
       </c>
       <c r="Y4" t="n">
-        <v>403.9876544537644</v>
+        <v>190.0068081091213</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>157.477756798422</v>
+        <v>307.6661507067965</v>
       </c>
       <c r="C5" t="n">
-        <v>157.477756798422</v>
+        <v>307.6661507067965</v>
       </c>
       <c r="D5" t="n">
-        <v>157.477756798422</v>
+        <v>307.6661507067965</v>
       </c>
       <c r="E5" t="n">
-        <v>157.477756798422</v>
+        <v>307.6661507067965</v>
       </c>
       <c r="F5" t="n">
-        <v>150.5322560492186</v>
+        <v>287.4747669672984</v>
       </c>
       <c r="G5" t="n">
-        <v>137.5684432757741</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H5" t="n">
-        <v>137.5684432757741</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I5" t="n">
         <v>21.09711040012049</v>
       </c>
       <c r="J5" t="n">
-        <v>49.28269087917585</v>
+        <v>49.2826908791767</v>
       </c>
       <c r="K5" t="n">
-        <v>142.2640879052541</v>
+        <v>142.2640879052547</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515906</v>
+        <v>294.517494751591</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030605</v>
+        <v>495.5981834030607</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991316</v>
+        <v>704.5463761991318</v>
       </c>
       <c r="O5" t="n">
         <v>888.5149683358413</v>
@@ -4586,31 +4588,31 @@
         <v>1011.026904601763</v>
       </c>
       <c r="Q5" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="R5" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="S5" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="T5" t="n">
-        <v>943.9180879916491</v>
+        <v>840.4214638411523</v>
       </c>
       <c r="U5" t="n">
-        <v>690.2330699327779</v>
+        <v>840.4214638411523</v>
       </c>
       <c r="V5" t="n">
-        <v>690.2330699327779</v>
+        <v>574.0438072739744</v>
       </c>
       <c r="W5" t="n">
-        <v>423.8554133656</v>
+        <v>574.0438072739744</v>
       </c>
       <c r="X5" t="n">
-        <v>157.477756798422</v>
+        <v>574.0438072739744</v>
       </c>
       <c r="Y5" t="n">
-        <v>157.477756798422</v>
+        <v>574.0438072739744</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>216.7910272872682</v>
+        <v>189.4904192610582</v>
       </c>
       <c r="C6" t="n">
-        <v>216.7910272872682</v>
+        <v>189.4904192610582</v>
       </c>
       <c r="D6" t="n">
-        <v>216.7910272872682</v>
+        <v>65.46256898749989</v>
       </c>
       <c r="E6" t="n">
-        <v>216.7910272872682</v>
+        <v>65.46256898749989</v>
       </c>
       <c r="F6" t="n">
-        <v>216.7910272872682</v>
+        <v>65.46256898749989</v>
       </c>
       <c r="G6" t="n">
-        <v>79.39434083633543</v>
+        <v>65.46256898749989</v>
       </c>
       <c r="H6" t="n">
-        <v>21.09711040012049</v>
+        <v>65.46256898749989</v>
       </c>
       <c r="I6" t="n">
         <v>21.09711040012049</v>
@@ -4647,49 +4649,49 @@
         <v>21.09711040012049</v>
       </c>
       <c r="K6" t="n">
-        <v>95.78113116957468</v>
+        <v>95.78113116957456</v>
       </c>
       <c r="L6" t="n">
-        <v>242.5255548298714</v>
+        <v>242.5255548298711</v>
       </c>
       <c r="M6" t="n">
-        <v>433.1262439263952</v>
+        <v>433.1262439263948</v>
       </c>
       <c r="N6" t="n">
-        <v>643.1802110290002</v>
+        <v>643.1802110289997</v>
       </c>
       <c r="O6" t="n">
-        <v>813.1187583557301</v>
+        <v>904.2569522304907</v>
       </c>
       <c r="P6" t="n">
-        <v>930.1763583891336</v>
+        <v>1021.314552263894</v>
       </c>
       <c r="Q6" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="R6" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="S6" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="T6" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="U6" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="V6" t="n">
-        <v>1054.855520006025</v>
+        <v>819.7034117742817</v>
       </c>
       <c r="W6" t="n">
-        <v>800.618163277823</v>
+        <v>565.4660550460801</v>
       </c>
       <c r="X6" t="n">
-        <v>592.7666630722902</v>
+        <v>565.4660550460801</v>
       </c>
       <c r="Y6" t="n">
-        <v>385.0063643073362</v>
+        <v>357.7057562811262</v>
       </c>
     </row>
     <row r="7">
@@ -4699,34 +4701,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>252.5678342013041</v>
+        <v>394.6098982765326</v>
       </c>
       <c r="C7" t="n">
-        <v>83.63165127339721</v>
+        <v>225.6737153486257</v>
       </c>
       <c r="D7" t="n">
-        <v>83.63165127339721</v>
+        <v>75.55707593628995</v>
       </c>
       <c r="E7" t="n">
-        <v>83.63165127339721</v>
+        <v>75.55707593628995</v>
       </c>
       <c r="F7" t="n">
-        <v>21.09711040012049</v>
+        <v>75.55707593628995</v>
       </c>
       <c r="G7" t="n">
-        <v>21.09711040012049</v>
+        <v>75.55707593628995</v>
       </c>
       <c r="H7" t="n">
-        <v>21.09711040012049</v>
+        <v>36.32155393434486</v>
       </c>
       <c r="I7" t="n">
-        <v>21.09711040012049</v>
+        <v>36.32155393434486</v>
       </c>
       <c r="J7" t="n">
         <v>21.09711040012049</v>
       </c>
       <c r="K7" t="n">
-        <v>126.4133765287944</v>
+        <v>126.4133765287946</v>
       </c>
       <c r="L7" t="n">
         <v>316.7083726551007</v>
@@ -4735,40 +4737,40 @@
         <v>527.7368878375333</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227044</v>
+        <v>739.1822330227043</v>
       </c>
       <c r="O7" t="n">
         <v>918.469937207554</v>
       </c>
       <c r="P7" t="n">
-        <v>1048.360858816803</v>
+        <v>1048.360858816802</v>
       </c>
       <c r="Q7" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="R7" t="n">
-        <v>926.0629918407075</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="S7" t="n">
-        <v>926.0629918407075</v>
+        <v>848.0684854165356</v>
       </c>
       <c r="T7" t="n">
-        <v>700.5939555987218</v>
+        <v>622.5994491745499</v>
       </c>
       <c r="U7" t="n">
-        <v>700.5939555987218</v>
+        <v>622.5994491745499</v>
       </c>
       <c r="V7" t="n">
-        <v>700.5939555987218</v>
+        <v>622.5994491745499</v>
       </c>
       <c r="W7" t="n">
-        <v>434.2162990315438</v>
+        <v>622.5994491745499</v>
       </c>
       <c r="X7" t="n">
-        <v>434.2162990315438</v>
+        <v>394.6098982765326</v>
       </c>
       <c r="Y7" t="n">
-        <v>434.2162990315438</v>
+        <v>394.6098982765326</v>
       </c>
     </row>
     <row r="8">
@@ -4778,13 +4780,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1378.810406950777</v>
+        <v>1688.365042002428</v>
       </c>
       <c r="C8" t="n">
-        <v>1009.847890010366</v>
+        <v>1688.365042002428</v>
       </c>
       <c r="D8" t="n">
-        <v>944.3110907974335</v>
+        <v>1330.099343395678</v>
       </c>
       <c r="E8" t="n">
         <v>944.3110907974335</v>
@@ -4802,16 +4804,16 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
         <v>442.5171852816082</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N8" t="n">
         <v>1656.671415230817</v>
@@ -4832,22 +4834,22 @@
         <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2353.59368700598</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U8" t="n">
-        <v>2100.01262627016</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V8" t="n">
-        <v>1768.949738926589</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="W8" t="n">
-        <v>1768.949738926589</v>
+        <v>2209.570673130041</v>
       </c>
       <c r="X8" t="n">
-        <v>1768.949738926589</v>
+        <v>2209.570673130041</v>
       </c>
       <c r="Y8" t="n">
-        <v>1378.810406950777</v>
+        <v>1819.431341154229</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F9" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182524</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057915</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
         <v>51.24678656800311</v>
@@ -4884,25 +4886,25 @@
         <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
-        <v>560.1394111735141</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L9" t="n">
-        <v>909.2465818694948</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M9" t="n">
-        <v>1272.508600828715</v>
+        <v>956.284402521753</v>
       </c>
       <c r="N9" t="n">
-        <v>1659.79372942566</v>
+        <v>1343.569531118698</v>
       </c>
       <c r="O9" t="n">
-        <v>1991.864164601822</v>
+        <v>1675.63996629486</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.046898434119</v>
+        <v>2238.100841080695</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400155</v>
+        <v>2561.393271046732</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4920,10 +4922,10 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4936,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>640.9145283561485</v>
+        <v>937.5665200750353</v>
       </c>
       <c r="C10" t="n">
-        <v>471.9783454282416</v>
+        <v>768.6303371471284</v>
       </c>
       <c r="D10" t="n">
-        <v>471.9783454282416</v>
+        <v>768.6303371471284</v>
       </c>
       <c r="E10" t="n">
-        <v>471.9783454282416</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="F10" t="n">
-        <v>325.0883979303312</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G10" t="n">
-        <v>157.1019332386098</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H10" t="n">
         <v>157.1019332386098</v>
@@ -4990,22 +4992,22 @@
         <v>1533.86271359008</v>
       </c>
       <c r="T10" t="n">
-        <v>1310.884232784815</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="U10" t="n">
-        <v>1310.884232784815</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="V10" t="n">
-        <v>1056.199744578928</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="W10" t="n">
-        <v>1056.199744578928</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="X10" t="n">
-        <v>1043.355572329918</v>
+        <v>1340.007564048805</v>
       </c>
       <c r="Y10" t="n">
-        <v>822.5629931863882</v>
+        <v>1119.214984905275</v>
       </c>
     </row>
     <row r="11">
@@ -5030,7 +5032,7 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
@@ -5121,25 +5123,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>577.3880777468471</v>
+        <v>671.2000270096659</v>
       </c>
       <c r="M12" t="n">
-        <v>1174.766565373399</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N12" t="n">
-        <v>1802.364528928006</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O12" t="n">
-        <v>2354.274259167293</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,7 +5175,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1031.260321675049</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="C13" t="n">
         <v>929.7309773356195</v>
@@ -5233,16 +5235,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W13" t="n">
-        <v>1433.701365648819</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X13" t="n">
-        <v>1433.701365648819</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y13" t="n">
-        <v>1212.908786505289</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="14">
@@ -5267,19 +5269,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5355,28 +5357,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349511</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M15" t="n">
-        <v>1520.445529061503</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N15" t="n">
-        <v>2148.04349261611</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O15" t="n">
-        <v>2283.159972732779</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>701.4712640439268</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C16" t="n">
-        <v>532.5350811160199</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D16" t="n">
-        <v>382.4184417036842</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E16" t="n">
-        <v>382.4184417036842</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F16" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5467,19 +5469,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1876.003517158562</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1621.319028952675</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1331.901858915714</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="X16" t="n">
-        <v>1103.912308017697</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y16" t="n">
-        <v>883.1197288741665</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="17">
@@ -5495,7 +5497,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
         <v>1204.759558406469</v>
@@ -5510,7 +5512,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
@@ -5595,25 +5597,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>448.1846595309963</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>943.510265746755</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M18" t="n">
-        <v>1540.888753373307</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N18" t="n">
-        <v>1540.888753373307</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O18" t="n">
-        <v>2092.798483612594</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2443.97263649114</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263527</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356195</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232838</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G19" t="n">
         <v>317.6151975578602</v>
@@ -5695,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>2044.506784258106</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1501.108204237296</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y19" t="n">
-        <v>1280.315625093766</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="20">
@@ -5747,22 +5749,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5838,19 +5840,19 @@
         <v>738.7889117913853</v>
       </c>
       <c r="M21" t="n">
-        <v>738.7889117913853</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N21" t="n">
-        <v>1366.386875345992</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O21" t="n">
-        <v>1918.296605585279</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="P21" t="n">
-        <v>2341.919755080347</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>983.3556038098237</v>
+        <v>1031.260321675049</v>
       </c>
       <c r="C22" t="n">
-        <v>814.4194208819168</v>
+        <v>862.3241387471426</v>
       </c>
       <c r="D22" t="n">
-        <v>664.3027814695811</v>
+        <v>712.2074993348068</v>
       </c>
       <c r="E22" t="n">
-        <v>516.389687887188</v>
+        <v>564.2944057524137</v>
       </c>
       <c r="F22" t="n">
-        <v>369.4997403892776</v>
+        <v>417.4044582545033</v>
       </c>
       <c r="G22" t="n">
-        <v>202.3036411041575</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
         <v>175.9033664000583</v>
@@ -5932,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1613.786198681611</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X22" t="n">
-        <v>1385.796647783593</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="Y22" t="n">
-        <v>1165.004068640063</v>
+        <v>1212.908786505289</v>
       </c>
     </row>
     <row r="23">
@@ -5969,55 +5971,55 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014781</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
         <v>4151.812499466573</v>
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3081.170977615668</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C24" t="n">
-        <v>2906.717948334541</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D24" t="n">
-        <v>2757.78353867329</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>2598.546083667834</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
-        <v>2452.011525694719</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G24" t="n">
-        <v>2316.252859740627</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>2231.588527385793</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>2231.588527385793</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>2381.235169913448</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>2715.159942084668</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L24" t="n">
-        <v>3210.485548300427</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M24" t="n">
-        <v>3807.864035926979</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N24" t="n">
-        <v>3807.864035926979</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>4033.948342528645</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>4457.571492023713</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>4690.833152398595</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
-        <v>4690.833152398595</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S24" t="n">
-        <v>4572.622366301208</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T24" t="n">
-        <v>4382.415660022982</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U24" t="n">
-        <v>4154.387578566167</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V24" t="n">
-        <v>3919.235470334424</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W24" t="n">
-        <v>3664.998113606222</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X24" t="n">
-        <v>3457.14661340069</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y24" t="n">
-        <v>3249.386314635736</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="25">
@@ -6121,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1098.667160263527</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356195</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232838</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578603</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6169,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.811327457202</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2045.209862480144</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>2045.209862480144</v>
+        <v>1885.210734949511</v>
       </c>
       <c r="V25" t="n">
-        <v>1790.525374274257</v>
+        <v>1630.526246743624</v>
       </c>
       <c r="W25" t="n">
-        <v>1501.108204237296</v>
+        <v>1341.109076706663</v>
       </c>
       <c r="X25" t="n">
-        <v>1501.108204237296</v>
+        <v>1113.119525808646</v>
       </c>
       <c r="Y25" t="n">
-        <v>1280.315625093766</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6205,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6212,22 +6214,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6236,10 +6238,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6254,19 +6256,19 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6306,25 +6308,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>244.2098454714573</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M27" t="n">
-        <v>1072.713683962606</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N27" t="n">
-        <v>1700.311647517212</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O27" t="n">
-        <v>2252.221377756499</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>878.3568999154069</v>
+        <v>803.2707707770323</v>
       </c>
       <c r="C28" t="n">
-        <v>709.4207169875</v>
+        <v>634.3345878491255</v>
       </c>
       <c r="D28" t="n">
-        <v>559.3040775751642</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E28" t="n">
-        <v>411.3909839927711</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F28" t="n">
-        <v>411.3909839927711</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G28" t="n">
-        <v>244.1948847076511</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1327.139029956954</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="X28" t="n">
-        <v>1099.149479058937</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y28" t="n">
-        <v>878.3568999154069</v>
+        <v>984.9192356072721</v>
       </c>
     </row>
     <row r="29">
@@ -6449,55 +6451,55 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362685</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
         <v>3467.980956852889</v>
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C30" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D30" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G30" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J30" t="n">
-        <v>2381.235169913446</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>2700.629779673681</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>3195.95538588944</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>3793.333873515992</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>4420.931837070599</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O30" t="n">
-        <v>4420.931837070599</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P30" t="n">
-        <v>4420.931837070599</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S30" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T30" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U30" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V30" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W30" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X30" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y30" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1098.667160263527</v>
+        <v>1022.530292372933</v>
       </c>
       <c r="C31" t="n">
-        <v>929.7309773356195</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232838</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408906</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="U31" t="n">
-        <v>1975.033022579363</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="V31" t="n">
-        <v>1975.033022579363</v>
+        <v>1942.378057281681</v>
       </c>
       <c r="W31" t="n">
-        <v>1685.615852542402</v>
+        <v>1652.96088724472</v>
       </c>
       <c r="X31" t="n">
-        <v>1457.626301644385</v>
+        <v>1424.971336346703</v>
       </c>
       <c r="Y31" t="n">
-        <v>1280.315625093766</v>
+        <v>1204.178757203173</v>
       </c>
     </row>
     <row r="32">
@@ -6680,19 +6682,19 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192593</v>
@@ -6701,28 +6703,28 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
         <v>4606.285157492578</v>
@@ -6734,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,10 +6773,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J33" t="n">
         <v>243.4633055756266</v>
@@ -6783,22 +6785,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L33" t="n">
-        <v>738.7889117913853</v>
+        <v>352.5519571452613</v>
       </c>
       <c r="M33" t="n">
-        <v>1336.167399417937</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N33" t="n">
-        <v>1540.888753373307</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O33" t="n">
-        <v>2092.798483612594</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3047.734188001555</v>
+        <v>801.6605733532801</v>
       </c>
       <c r="C34" t="n">
-        <v>2878.798005073648</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="D34" t="n">
-        <v>2728.681365661313</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E34" t="n">
-        <v>2728.681365661313</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F34" t="n">
-        <v>2728.681365661313</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G34" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>4221.331149328841</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="U34" t="n">
-        <v>3932.255922673039</v>
+        <v>1976.192826467915</v>
       </c>
       <c r="V34" t="n">
-        <v>3739.592402012286</v>
+        <v>1721.508338262028</v>
       </c>
       <c r="W34" t="n">
-        <v>3450.175231975325</v>
+        <v>1432.091168225067</v>
       </c>
       <c r="X34" t="n">
-        <v>3450.175231975325</v>
+        <v>1204.10161732705</v>
       </c>
       <c r="Y34" t="n">
-        <v>3229.382652831795</v>
+        <v>983.3090381835199</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6916,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6923,61 +6925,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>427.7414352191925</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1025.119922845744</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1652.717886400351</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>2204.627616639638</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2530.951795518647</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3336.216066251167</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="C37" t="n">
-        <v>3167.27988332326</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="D37" t="n">
-        <v>3017.163243910925</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E37" t="n">
-        <v>2869.250150328532</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F37" t="n">
-        <v>2722.360202830621</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G37" t="n">
-        <v>2555.164103545501</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>2413.452272387699</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>4623.787448650995</v>
+        <v>2396.395314378669</v>
       </c>
       <c r="S37" t="n">
-        <v>4440.9326143059</v>
+        <v>2213.540480033573</v>
       </c>
       <c r="T37" t="n">
-        <v>4221.331149328841</v>
+        <v>1993.939015056514</v>
       </c>
       <c r="U37" t="n">
-        <v>4221.331149328841</v>
+        <v>1704.863788400712</v>
       </c>
       <c r="V37" t="n">
-        <v>3966.646661122954</v>
+        <v>1450.179300194825</v>
       </c>
       <c r="W37" t="n">
-        <v>3966.646661122954</v>
+        <v>1160.762130157864</v>
       </c>
       <c r="X37" t="n">
-        <v>3738.657110224937</v>
+        <v>932.7725792598471</v>
       </c>
       <c r="Y37" t="n">
-        <v>3517.864531081407</v>
+        <v>711.980000116317</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C39" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D39" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G39" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>2233.355914590558</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J39" t="n">
-        <v>2383.002557118213</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>2716.927329289434</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>3195.95538588944</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>3793.333873515992</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N39" t="n">
-        <v>4420.931837070599</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>4420.931837070599</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>4420.931837070599</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>4654.193497445481</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S39" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T39" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U39" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V39" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W39" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X39" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y39" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>781.3544215660705</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C40" t="n">
-        <v>612.4182386381636</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D40" t="n">
-        <v>612.4182386381636</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E40" t="n">
-        <v>464.5051450557705</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F40" t="n">
-        <v>317.6151975578602</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y40" t="n">
-        <v>916.2946447138411</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="41">
@@ -7388,7 +7390,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7397,22 +7399,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7421,37 +7423,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,34 +7484,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J42" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L42" t="n">
-        <v>867.8220324314351</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M42" t="n">
-        <v>1465.200520057987</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N42" t="n">
-        <v>2092.798483612594</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O42" t="n">
-        <v>2092.798483612594</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2443.97263649114</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2883.976121413757</v>
+        <v>782.841029837709</v>
       </c>
       <c r="C43" t="n">
-        <v>2883.976121413757</v>
+        <v>782.841029837709</v>
       </c>
       <c r="D43" t="n">
-        <v>2733.859482001421</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E43" t="n">
-        <v>2733.859482001421</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F43" t="n">
-        <v>2586.969534503511</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G43" t="n">
-        <v>2419.773435218391</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H43" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>4058.508374528391</v>
+        <v>1957.373282952344</v>
       </c>
       <c r="V43" t="n">
-        <v>3803.823886322504</v>
+        <v>1702.688794746457</v>
       </c>
       <c r="W43" t="n">
-        <v>3514.406716285544</v>
+        <v>1413.271624709496</v>
       </c>
       <c r="X43" t="n">
-        <v>3286.417165387526</v>
+        <v>1185.282073811479</v>
       </c>
       <c r="Y43" t="n">
-        <v>3065.624586243996</v>
+        <v>964.4894946679487</v>
       </c>
     </row>
     <row r="44">
@@ -7625,7 +7627,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D44" t="n">
         <v>1590.547811004713</v>
@@ -7634,52 +7636,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V44" t="n">
         <v>3820.749612123003</v>
@@ -7710,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,31 +7721,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L45" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M45" t="n">
-        <v>949.9304447718133</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N45" t="n">
-        <v>1577.52840832642</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2443.97263649114</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>954.2476448606602</v>
+        <v>633.4413279836774</v>
       </c>
       <c r="C46" t="n">
-        <v>785.3114619327533</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="D46" t="n">
-        <v>635.1948225204176</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408906</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H46" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>1135.8961096909</v>
+        <v>815.0897928139171</v>
       </c>
     </row>
   </sheetData>
@@ -8000,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.59164343877248</v>
+        <v>60.59164343877319</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,13 +8057,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.109135423079081</v>
+        <v>2.109135423079664</v>
       </c>
       <c r="K3" t="n">
-        <v>96.89877181692594</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>5.025207453909388</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8070,7 +8072,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>91.87356436301212</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -8137,7 +8139,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>106.7437663446525</v>
+        <v>105.9060266940957</v>
       </c>
       <c r="L4" t="n">
         <v>162.4747015415544</v>
@@ -8149,7 +8151,7 @@
         <v>171.8177168444618</v>
       </c>
       <c r="O4" t="n">
-        <v>162.2039267153341</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P4" t="n">
         <v>135.0065633140411</v>
@@ -8237,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>60.51967546761151</v>
+        <v>60.51967546761162</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>2.051220519418237</v>
+        <v>2.051220519418308</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8307,13 +8309,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>92.05878169167812</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>97.32166909127223</v>
+        <v>5.262887399594774</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,10 +8534,10 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>54.95314511566568</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8547,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.9377812015499</v>
+        <v>21.89339468985681</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23413,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>159.5809595057647</v>
       </c>
       <c r="C13" t="n">
-        <v>66.73277020259219</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23473,13 +23475,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23659,19 +23661,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23707,16 +23709,16 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>185.741486670817</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>207.8347205162519</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23890,10 +23892,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>39.11615722870218</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23902,7 +23904,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23935,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23944,16 +23946,16 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>226.4057028288546</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24139,10 +24141,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>66.73277020259216</v>
       </c>
       <c r="H22" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24172,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24187,10 +24189,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24376,7 +24378,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24409,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0.6960474398171641</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>194.8566322838567</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24427,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24598,25 +24600,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>146.0084629450598</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>72.68610972170704</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24649,7 +24651,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24661,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24838,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>75.3754992116875</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24883,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24892,10 +24894,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24904,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>43.04708356698259</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25078,10 +25080,10 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25126,19 +25128,19 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>67.52345255978807</v>
       </c>
       <c r="V34" t="n">
-        <v>61.40075786968214</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25312,10 +25314,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25324,13 +25326,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>6.25795120238449</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>16.31315520054558</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25366,13 +25368,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25546,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.24115926564446</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25561,7 +25563,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25597,16 +25599,16 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>111.7546635373311</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25615,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25792,16 +25794,16 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25840,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>124.9899273367985</v>
+        <v>266.2975548066608</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26026,16 +26028,16 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>142.9753202488375</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26074,7 +26076,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26089,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>118.3918499711696</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>838026.8832353075</v>
+        <v>838026.8832353074</v>
       </c>
     </row>
     <row r="3">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>818735.5350252402</v>
+        <v>818735.5350252403</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>818735.5350252403</v>
+        <v>818735.5350252402</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>818735.5350252403</v>
+        <v>818735.5350252402</v>
       </c>
     </row>
     <row r="10">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>818735.5350252403</v>
+        <v>818735.5350252402</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>818735.5350252402</v>
+        <v>818735.5350252403</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>818735.5350252403</v>
+        <v>818735.5350252402</v>
       </c>
     </row>
   </sheetData>
@@ -26311,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.3273982129</v>
+        <v>615781.3273982123</v>
       </c>
       <c r="C2" t="n">
-        <v>615781.327398212</v>
+        <v>615781.3273982125</v>
       </c>
       <c r="D2" t="n">
-        <v>615781.3273982124</v>
+        <v>615781.3273982127</v>
       </c>
       <c r="E2" t="n">
         <v>605359.9497675045</v>
@@ -26329,31 +26331,31 @@
         <v>605359.9497675044</v>
       </c>
       <c r="H2" t="n">
+        <v>605359.9497675046</v>
+      </c>
+      <c r="I2" t="n">
+        <v>605359.9497675045</v>
+      </c>
+      <c r="J2" t="n">
         <v>605359.9497675044</v>
       </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
         <v>605359.9497675046</v>
       </c>
-      <c r="J2" t="n">
-        <v>605359.9497675042</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>605359.9497675045</v>
       </c>
-      <c r="L2" t="n">
-        <v>605359.9497675041</v>
-      </c>
       <c r="M2" t="n">
-        <v>605359.9497675041</v>
+        <v>605359.9497675045</v>
       </c>
       <c r="N2" t="n">
-        <v>605359.9497675045</v>
+        <v>605359.9497675046</v>
       </c>
       <c r="O2" t="n">
         <v>605359.9497675045</v>
       </c>
       <c r="P2" t="n">
-        <v>605359.9497675042</v>
+        <v>605359.9497675041</v>
       </c>
     </row>
     <row r="3">
@@ -26363,13 +26365,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>679702.4124909322</v>
+        <v>679702.4124909283</v>
       </c>
       <c r="C3" t="n">
-        <v>366.4703680915525</v>
+        <v>366.4703680948757</v>
       </c>
       <c r="D3" t="n">
-        <v>391128.3638059434</v>
+        <v>391128.3638059438</v>
       </c>
       <c r="E3" t="n">
         <v>507485.4416245458</v>
@@ -26387,13 +26389,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68912.53318642137</v>
+        <v>68912.53318642081</v>
       </c>
       <c r="K3" t="n">
-        <v>85.20559774213079</v>
+        <v>85.20559774293172</v>
       </c>
       <c r="L3" t="n">
-        <v>95382.64613756974</v>
+        <v>95382.64613756977</v>
       </c>
       <c r="M3" t="n">
         <v>132607.2937289267</v>
@@ -26415,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>253116.5477674024</v>
+        <v>253116.5477674034</v>
       </c>
       <c r="C4" t="n">
         <v>253016.7649073352</v>
@@ -26424,10 +26426,10 @@
         <v>142746.9572676995</v>
       </c>
       <c r="E4" t="n">
-        <v>12386.92018181818</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="F4" t="n">
-        <v>12386.92018181818</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="G4" t="n">
         <v>12386.92018181813</v>
@@ -26436,25 +26438,25 @@
         <v>12386.92018181813</v>
       </c>
       <c r="I4" t="n">
-        <v>12386.92018181822</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="J4" t="n">
-        <v>12386.92018181808</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="K4" t="n">
         <v>12386.92018181813</v>
       </c>
       <c r="L4" t="n">
-        <v>12386.92018181818</v>
+        <v>12386.92018181809</v>
       </c>
       <c r="M4" t="n">
-        <v>12386.92018181817</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="N4" t="n">
-        <v>12386.92018181818</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="O4" t="n">
-        <v>12386.92018181818</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="P4" t="n">
         <v>12386.92018181813</v>
@@ -26467,10 +26469,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63021.46164557707</v>
+        <v>63021.46164557681</v>
       </c>
       <c r="C5" t="n">
-        <v>63047.8032042662</v>
+        <v>63047.80320426619</v>
       </c>
       <c r="D5" t="n">
         <v>92937.7724398447</v>
@@ -26519,16 +26521,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-380059.0945056988</v>
+        <v>-380059.0945056963</v>
       </c>
       <c r="C6" t="n">
-        <v>299350.2889185192</v>
+        <v>299350.2889185162</v>
       </c>
       <c r="D6" t="n">
         <v>-11031.76611527518</v>
       </c>
       <c r="E6" t="n">
-        <v>-15634.94186276663</v>
+        <v>-15634.94186276656</v>
       </c>
       <c r="F6" t="n">
         <v>491850.499761779</v>
@@ -26537,31 +26539,31 @@
         <v>491850.4997617792</v>
       </c>
       <c r="H6" t="n">
-        <v>491850.4997617792</v>
+        <v>491850.4997617794</v>
       </c>
       <c r="I6" t="n">
         <v>491850.4997617793</v>
       </c>
       <c r="J6" t="n">
-        <v>422937.9665753577</v>
+        <v>422937.9665753583</v>
       </c>
       <c r="K6" t="n">
-        <v>491765.2941640372</v>
+        <v>491765.2941640365</v>
       </c>
       <c r="L6" t="n">
-        <v>396467.8536242091</v>
+        <v>396467.8536242095</v>
       </c>
       <c r="M6" t="n">
-        <v>359243.2060328522</v>
+        <v>359243.2060328525</v>
       </c>
       <c r="N6" t="n">
-        <v>491850.4997617792</v>
+        <v>491850.4997617794</v>
       </c>
       <c r="O6" t="n">
-        <v>491850.4997617792</v>
+        <v>491850.4997617793</v>
       </c>
       <c r="P6" t="n">
-        <v>491850.499761779</v>
+        <v>491850.4997617789</v>
       </c>
     </row>
   </sheetData>
@@ -26735,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>613.7700232960533</v>
+        <v>613.7700232960505</v>
       </c>
       <c r="C3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.055013769478</v>
       </c>
       <c r="D3" t="n">
         <v>934.0648921175392</v>
@@ -26787,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.3828147651828</v>
+        <v>263.3828147651795</v>
       </c>
       <c r="C4" t="n">
         <v>263.7138800015061</v>
@@ -26808,28 +26810,28 @@
         <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
     </row>
   </sheetData>
@@ -26957,13 +26959,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>613.7700232960533</v>
+        <v>613.7700232960505</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2849904734250686</v>
+        <v>0.2849904734275697</v>
       </c>
       <c r="D3" t="n">
-        <v>320.0098783480609</v>
+        <v>320.0098783480612</v>
       </c>
       <c r="E3" t="n">
         <v>433.9106082241345</v>
@@ -26981,7 +26983,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27009,13 +27011,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.3828147651828</v>
+        <v>263.3828147651795</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3310652363233544</v>
+        <v>0.3310652363265909</v>
       </c>
       <c r="D4" t="n">
-        <v>376.8709520985327</v>
+        <v>376.8709520985328</v>
       </c>
       <c r="E4" t="n">
         <v>532.1234559996095</v>
@@ -27033,13 +27035,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.3828147651823</v>
+        <v>263.3828147651795</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3310652363233544</v>
+        <v>0.3310652363267062</v>
       </c>
       <c r="L4" t="n">
-        <v>376.8709520985327</v>
+        <v>376.8709520985328</v>
       </c>
       <c r="M4" t="n">
         <v>532.1234559996095</v>
@@ -27255,13 +27257,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.3828147651828</v>
+        <v>263.3828147651795</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3310652363233544</v>
+        <v>0.3310652363265909</v>
       </c>
       <c r="L4" t="n">
-        <v>376.8709520985327</v>
+        <v>376.8709520985328</v>
       </c>
       <c r="M4" t="n">
         <v>532.1234559996095</v>
@@ -27376,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>170.4576244960745</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>101.8900770058248</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>118.5475553070823</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>179.6502371232705</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>149.452505570876</v>
       </c>
       <c r="H2" t="n">
-        <v>314.2053659305181</v>
+        <v>314.2053659305182</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3507887739392</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7938006179687</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>212.2947308627104</v>
@@ -27436,7 +27438,7 @@
         <v>251.1482595335101</v>
       </c>
       <c r="V2" t="n">
-        <v>64.36944370495212</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27445,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>122.8551238908708</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27458,19 +27460,19 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.0233325848003</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27503,28 +27505,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.19058462642677</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.161321588189</v>
       </c>
       <c r="T3" t="n">
         <v>194.8434583985096</v>
       </c>
       <c r="U3" t="n">
-        <v>127.218067531329</v>
+        <v>225.8545278323952</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>143.6392223609562</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27537,10 +27539,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27549,16 +27551,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.8841809557937</v>
       </c>
       <c r="H4" t="n">
-        <v>152.3867285273815</v>
+        <v>152.3867285273816</v>
       </c>
       <c r="I4" t="n">
-        <v>58.57782341220496</v>
+        <v>122.1660284180233</v>
       </c>
       <c r="J4" t="n">
-        <v>15.10853304825629</v>
+        <v>15.10853304825665</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,13 +27584,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>127.5277104718865</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7281204196192</v>
+        <v>204.7281204196193</v>
       </c>
       <c r="T4" t="n">
-        <v>223.2165417078037</v>
+        <v>109.5574487437677</v>
       </c>
       <c r="U4" t="n">
         <v>286.2586585345273</v>
@@ -27597,10 +27599,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>23.14018357140822</v>
+        <v>23.14018357141151</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>119.0199616619745</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27625,16 +27627,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>386.8865758396083</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>149.1202946442039</v>
       </c>
       <c r="H5" t="n">
         <v>314.193632629268</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,19 +27669,19 @@
         <v>152.7676931992223</v>
       </c>
       <c r="T5" t="n">
-        <v>102.4616579089916</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>64.03837846862882</v>
       </c>
       <c r="W5" t="n">
-        <v>85.52708871590687</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>106.0172206769629</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27698,7 +27700,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>24.65749379381609</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -27707,13 +27709,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
-        <v>41.76506213935696</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I6" t="n">
-        <v>43.92180400150558</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,7 +27742,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527767</v>
+        <v>18.15252495527771</v>
       </c>
       <c r="S6" t="n">
         <v>147.1499354121988</v>
@@ -27752,13 +27754,13 @@
         <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27771,31 +27773,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>83.51185255838729</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.8836670385466</v>
       </c>
       <c r="H7" t="n">
-        <v>152.3821593358568</v>
+        <v>113.5389925539311</v>
       </c>
       <c r="I7" t="n">
-        <v>122.1505735248085</v>
+        <v>122.1505735248086</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888208</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,10 +27821,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S7" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27834,10 +27836,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>22.80911833508486</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>252.9782055031975</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>289.8016103998802</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27904,16 +27906,16 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28017,7 +28019,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28026,7 +28028,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28062,19 +28064,19 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>212.9939248625173</v>
+        <v>33.79305734317529</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.46741717907961</v>
+        <v>2.467417179079598</v>
       </c>
       <c r="H2" t="n">
-        <v>25.26943618524906</v>
+        <v>25.26943618524894</v>
       </c>
       <c r="I2" t="n">
-        <v>95.12510079646674</v>
+        <v>95.1251007964663</v>
       </c>
       <c r="J2" t="n">
-        <v>209.4189488029082</v>
+        <v>209.4189488029072</v>
       </c>
       <c r="K2" t="n">
-        <v>313.8647179933481</v>
+        <v>313.8647179933466</v>
       </c>
       <c r="L2" t="n">
-        <v>389.3769364876058</v>
+        <v>389.376936487604</v>
       </c>
       <c r="M2" t="n">
-        <v>433.2568667460628</v>
+        <v>433.2568667460608</v>
       </c>
       <c r="N2" t="n">
-        <v>440.2674158061228</v>
+        <v>440.2674158061207</v>
       </c>
       <c r="O2" t="n">
-        <v>415.7320362316499</v>
+        <v>415.732036231648</v>
       </c>
       <c r="P2" t="n">
-        <v>354.8176746231219</v>
+        <v>354.8176746231203</v>
       </c>
       <c r="Q2" t="n">
-        <v>266.4532968973334</v>
+        <v>266.4532968973321</v>
       </c>
       <c r="R2" t="n">
-        <v>154.9938943753596</v>
+        <v>154.9938943753589</v>
       </c>
       <c r="S2" t="n">
-        <v>56.22626896827666</v>
+        <v>56.22626896827639</v>
       </c>
       <c r="T2" t="n">
-        <v>10.80111870142099</v>
+        <v>10.80111870142095</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1973933743263687</v>
+        <v>0.1973933743263678</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.320184578410379</v>
+        <v>1.320184578410373</v>
       </c>
       <c r="H3" t="n">
-        <v>12.75020369148971</v>
+        <v>12.75020369148965</v>
       </c>
       <c r="I3" t="n">
-        <v>45.4537234233398</v>
+        <v>45.45372342333959</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7284912435876</v>
+        <v>124.728491243587</v>
       </c>
       <c r="K3" t="n">
-        <v>213.180857997083</v>
+        <v>213.180857997082</v>
       </c>
       <c r="L3" t="n">
-        <v>286.6479717289728</v>
+        <v>286.6479717289715</v>
       </c>
       <c r="M3" t="n">
-        <v>334.504662696349</v>
+        <v>334.5046626963475</v>
       </c>
       <c r="N3" t="n">
-        <v>343.3580057682327</v>
+        <v>343.3580057682311</v>
       </c>
       <c r="O3" t="n">
-        <v>314.1054948466132</v>
+        <v>314.1054948466118</v>
       </c>
       <c r="P3" t="n">
-        <v>252.0973516439959</v>
+        <v>252.0973516439948</v>
       </c>
       <c r="Q3" t="n">
-        <v>168.5204033774371</v>
+        <v>168.5204033774364</v>
       </c>
       <c r="R3" t="n">
-        <v>81.96724952621636</v>
+        <v>81.96724952621598</v>
       </c>
       <c r="S3" t="n">
-        <v>24.52184951564891</v>
+        <v>24.52184951564879</v>
       </c>
       <c r="T3" t="n">
-        <v>5.321270296312007</v>
+        <v>5.321270296311983</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08685424857963021</v>
+        <v>0.08685424857962983</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.106798402665014</v>
+        <v>1.106798402665009</v>
       </c>
       <c r="H4" t="n">
-        <v>9.840443980058041</v>
+        <v>9.840443980057996</v>
       </c>
       <c r="I4" t="n">
-        <v>33.28444650923516</v>
+        <v>33.284446509235</v>
       </c>
       <c r="J4" t="n">
-        <v>78.25064706841648</v>
+        <v>78.25064706841613</v>
       </c>
       <c r="K4" t="n">
-        <v>128.5898507823534</v>
+        <v>128.5898507823528</v>
       </c>
       <c r="L4" t="n">
-        <v>164.5507370653058</v>
+        <v>164.5507370653051</v>
       </c>
       <c r="M4" t="n">
-        <v>173.4956805195712</v>
+        <v>173.4956805195704</v>
       </c>
       <c r="N4" t="n">
-        <v>169.370341018729</v>
+        <v>169.3703410187283</v>
       </c>
       <c r="O4" t="n">
-        <v>156.4409233148695</v>
+        <v>156.4409233148688</v>
       </c>
       <c r="P4" t="n">
-        <v>133.8622359005031</v>
+        <v>133.8622359005025</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.67927351770405</v>
+        <v>92.67927351770362</v>
       </c>
       <c r="R4" t="n">
-        <v>49.76568090528325</v>
+        <v>49.76568090528303</v>
       </c>
       <c r="S4" t="n">
-        <v>19.28847761735301</v>
+        <v>19.28847761735292</v>
       </c>
       <c r="T4" t="n">
-        <v>4.729047720477786</v>
+        <v>4.729047720477764</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06037082196354629</v>
+        <v>0.06037082196354601</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.468562869425037</v>
+        <v>2.468562869425035</v>
       </c>
       <c r="H5" t="n">
-        <v>25.28116948649916</v>
+        <v>25.28116948649915</v>
       </c>
       <c r="I5" t="n">
-        <v>95.16927002350883</v>
+        <v>95.16927002350877</v>
       </c>
       <c r="J5" t="n">
-        <v>209.5161878388634</v>
+        <v>209.5161878388633</v>
       </c>
       <c r="K5" t="n">
-        <v>314.0104541016253</v>
+        <v>314.0104541016251</v>
       </c>
       <c r="L5" t="n">
-        <v>389.5577350167918</v>
+        <v>389.5577350167916</v>
       </c>
       <c r="M5" t="n">
-        <v>433.4580399459293</v>
+        <v>433.458039945929</v>
       </c>
       <c r="N5" t="n">
-        <v>440.4718441986832</v>
+        <v>440.471844198683</v>
       </c>
       <c r="O5" t="n">
-        <v>415.925072165838</v>
+        <v>415.9250721658378</v>
       </c>
       <c r="P5" t="n">
-        <v>354.9824263269073</v>
+        <v>354.9824263269072</v>
       </c>
       <c r="Q5" t="n">
-        <v>266.5770185656231</v>
+        <v>266.577018565623</v>
       </c>
       <c r="R5" t="n">
-        <v>155.0658623465206</v>
+        <v>155.0658623465205</v>
       </c>
       <c r="S5" t="n">
-        <v>56.25237638702308</v>
+        <v>56.25237638702305</v>
       </c>
       <c r="T5" t="n">
         <v>10.8061339609081</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1974850295540029</v>
+        <v>0.1974850295540028</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.32079757678718</v>
+        <v>1.320797576787179</v>
       </c>
       <c r="H6" t="n">
         <v>12.75612396528671</v>
       </c>
       <c r="I6" t="n">
-        <v>45.47482884990949</v>
+        <v>45.47482884990946</v>
       </c>
       <c r="J6" t="n">
-        <v>124.7864061472485</v>
+        <v>124.7864061472484</v>
       </c>
       <c r="K6" t="n">
-        <v>213.2798437919895</v>
+        <v>213.2798437919894</v>
       </c>
       <c r="L6" t="n">
-        <v>286.7810703458305</v>
+        <v>286.7810703458303</v>
       </c>
       <c r="M6" t="n">
-        <v>334.6599825043656</v>
+        <v>334.6599825043655</v>
       </c>
       <c r="N6" t="n">
-        <v>343.517436429399</v>
+        <v>343.5174364293989</v>
       </c>
       <c r="O6" t="n">
-        <v>314.2513427542726</v>
+        <v>314.2513427542724</v>
       </c>
       <c r="P6" t="n">
-        <v>252.2144074480713</v>
+        <v>252.2144074480711</v>
       </c>
       <c r="Q6" t="n">
-        <v>168.5986520825179</v>
+        <v>168.5986520825178</v>
       </c>
       <c r="R6" t="n">
-        <v>82.00530919736546</v>
+        <v>82.00530919736542</v>
       </c>
       <c r="S6" t="n">
-        <v>24.53323569163905</v>
+        <v>24.53323569163904</v>
       </c>
       <c r="T6" t="n">
-        <v>5.323741109944815</v>
+        <v>5.323741109944812</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08689457742020924</v>
+        <v>0.08689457742020919</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.107312319912174</v>
+        <v>1.107312319912173</v>
       </c>
       <c r="H7" t="n">
-        <v>9.84501317158279</v>
+        <v>9.845013171582785</v>
       </c>
       <c r="I7" t="n">
-        <v>33.29990140244975</v>
+        <v>33.29990140244973</v>
       </c>
       <c r="J7" t="n">
-        <v>78.28698101779069</v>
+        <v>78.28698101779065</v>
       </c>
       <c r="K7" t="n">
-        <v>128.6495586225235</v>
+        <v>128.6495586225234</v>
       </c>
       <c r="L7" t="n">
-        <v>164.6271425440336</v>
+        <v>164.6271425440335</v>
       </c>
       <c r="M7" t="n">
-        <v>173.576239384051</v>
+        <v>173.5762393840509</v>
       </c>
       <c r="N7" t="n">
-        <v>169.4489843734694</v>
+        <v>169.4489843734693</v>
       </c>
       <c r="O7" t="n">
-        <v>156.5135631817681</v>
+        <v>156.513563181768</v>
       </c>
       <c r="P7" t="n">
-        <v>133.9243918555596</v>
+        <v>133.9243918555595</v>
       </c>
       <c r="Q7" t="n">
-        <v>92.72230707919122</v>
+        <v>92.72230707919118</v>
       </c>
       <c r="R7" t="n">
-        <v>49.78878849350556</v>
+        <v>49.78878849350553</v>
       </c>
       <c r="S7" t="n">
-        <v>19.29743379337852</v>
+        <v>19.29743379337851</v>
       </c>
       <c r="T7" t="n">
-        <v>4.731243548715652</v>
+        <v>4.731243548715649</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06039885381339138</v>
+        <v>0.06039885381339134</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31841,10 +31843,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>570.6116741576916</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
@@ -31853,16 +31855,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>297.7596336167232</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32075,31 +32077,31 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>620.1193660647499</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>279.0775374915855</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32315,16 +32317,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>344.6306853939244</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
@@ -32333,10 +32335,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>250.1723312270667</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32558,22 +32560,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>456.5952253539618</v>
       </c>
       <c r="Q21" t="n">
-        <v>353.2560498238277</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32789,7 +32791,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32798,16 +32800,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>370.9642309107742</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -32935,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33026,37 +33028,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>138.5955196772183</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>202.2352659288688</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33263,37 +33265,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>460.4622569139905</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>370.9642309107744</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33503,34 +33505,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>248.7449369209194</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>338.1309585028985</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>485.927610870024</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>168.0123247135882</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>622.4211036182646</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>368.6279838366847</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
         <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34211,37 +34213,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>431.9220107744075</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>250.1723312270667</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>516.654215558583</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>250.1723312270667</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.37304427622189</v>
+        <v>28.37304427622092</v>
       </c>
       <c r="K2" t="n">
-        <v>93.77486694836756</v>
+        <v>93.77486694836608</v>
       </c>
       <c r="L2" t="n">
-        <v>153.6105215176186</v>
+        <v>153.6105215176167</v>
       </c>
       <c r="M2" t="n">
-        <v>202.91063351879</v>
+        <v>202.910633518788</v>
       </c>
       <c r="N2" t="n">
-        <v>210.8543522095318</v>
+        <v>210.8543522095298</v>
       </c>
       <c r="O2" t="n">
-        <v>185.6338248099632</v>
+        <v>185.6338248099612</v>
       </c>
       <c r="P2" t="n">
-        <v>123.5846788678524</v>
+        <v>123.5846788678508</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.14760702288388</v>
+        <v>44.14760702288262</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>172.2381908396499</v>
+        <v>75.33941902272301</v>
       </c>
       <c r="L3" t="n">
-        <v>148.0935919490987</v>
+        <v>153.1187994030067</v>
       </c>
       <c r="M3" t="n">
-        <v>192.3706287743307</v>
+        <v>192.3706287743291</v>
       </c>
       <c r="N3" t="n">
-        <v>212.0162936848994</v>
+        <v>212.0162936848978</v>
       </c>
       <c r="O3" t="n">
-        <v>171.5092504021688</v>
+        <v>263.3828147651795</v>
       </c>
       <c r="P3" t="n">
-        <v>118.1229442296657</v>
+        <v>118.1229442296645</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.53862929141562</v>
+        <v>28.53862929141485</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,25 +34859,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>106.3203589564706</v>
+        <v>105.4826193059132</v>
       </c>
       <c r="L4" t="n">
-        <v>192.140762325622</v>
+        <v>192.1407623256212</v>
       </c>
       <c r="M4" t="n">
-        <v>213.0795574814118</v>
+        <v>213.079557481411</v>
       </c>
       <c r="N4" t="n">
-        <v>213.5025133979576</v>
+        <v>213.5025133979568</v>
       </c>
       <c r="O4" t="n">
-        <v>180.1883115783608</v>
+        <v>181.0260512289084</v>
       </c>
       <c r="P4" t="n">
-        <v>131.1407951653966</v>
+        <v>131.140795165396</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.517230266009662</v>
+        <v>6.517230266009236</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.47028331217712</v>
+        <v>28.470283312177</v>
       </c>
       <c r="K5" t="n">
-        <v>93.92060305664472</v>
+        <v>93.92060305664455</v>
       </c>
       <c r="L5" t="n">
-        <v>153.7913200468046</v>
+        <v>153.7913200468043</v>
       </c>
       <c r="M5" t="n">
-        <v>203.1118067186566</v>
+        <v>203.1118067186563</v>
       </c>
       <c r="N5" t="n">
-        <v>211.0587806020923</v>
+        <v>211.058780602092</v>
       </c>
       <c r="O5" t="n">
-        <v>185.8268607441513</v>
+        <v>185.826860744151</v>
       </c>
       <c r="P5" t="n">
-        <v>123.7494305716378</v>
+        <v>123.7494305716376</v>
       </c>
       <c r="Q5" t="n">
-        <v>44.27132869117364</v>
+        <v>44.27132869117347</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>75.4384048176305</v>
+        <v>75.43840481763038</v>
       </c>
       <c r="L6" t="n">
-        <v>148.2266905659563</v>
+        <v>148.2266905659561</v>
       </c>
       <c r="M6" t="n">
-        <v>192.5259485823473</v>
+        <v>192.5259485823472</v>
       </c>
       <c r="N6" t="n">
-        <v>212.1757243460657</v>
+        <v>212.1757243460656</v>
       </c>
       <c r="O6" t="n">
-        <v>171.6550983098281</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="P6" t="n">
-        <v>118.240000033741</v>
+        <v>118.2400000337409</v>
       </c>
       <c r="Q6" t="n">
-        <v>125.9385470877686</v>
+        <v>33.8797653960911</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,25 +35096,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>106.3800667966406</v>
+        <v>106.3800667966405</v>
       </c>
       <c r="L7" t="n">
         <v>192.2171678043497</v>
       </c>
       <c r="M7" t="n">
-        <v>213.1601163458916</v>
+        <v>213.1601163458915</v>
       </c>
       <c r="N7" t="n">
-        <v>213.581156752698</v>
+        <v>213.5811567526979</v>
       </c>
       <c r="O7" t="n">
         <v>181.0986910958077</v>
       </c>
       <c r="P7" t="n">
-        <v>131.2029511204531</v>
+        <v>131.202951120453</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.56026382749684</v>
+        <v>6.560263827496797</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35252,10 +35254,10 @@
         <v>62.98022089091742</v>
       </c>
       <c r="K9" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>352.6335057535159</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
         <v>366.9313322820405</v>
@@ -35267,13 +35269,13 @@
         <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235323</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q9" t="n">
         <v>326.5580100667037</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>0.9556134883069083</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35489,10 +35491,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>432.0572943778175</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
@@ -35501,16 +35503,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>163.785226202393</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35723,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>477.9853321427316</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>136.4812930471411</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35963,16 +35965,16 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>206.7892464195654</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
@@ -35981,10 +35983,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>110.1905571410452</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36206,22 +36208,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>322.6208179396315</v>
       </c>
       <c r="Q21" t="n">
-        <v>213.2742757378062</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36364,7 +36366,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790297</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
@@ -36437,7 +36439,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36446,16 +36448,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>228.3679864663297</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36589,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,28 +36676,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0.7540807028593151</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>68.26085851453861</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,28 +36913,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>322.6208179396315</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>228.3679864663299</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,25 +37153,25 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>110.1905571410452</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>206.7892464195652</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>351.9532034556937</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37625,25 +37627,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>483.8667238383904</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>237.2862717533515</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,28 +37861,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>293.3676309945333</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>110.1905571410452</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,31 +38092,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>374.5201816365647</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>110.1905571410452</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_19_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_19_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2280409.802002534</v>
+        <v>2276105.48495429</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -661,25 +661,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>263.3828147651809</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>263.3828147651809</v>
       </c>
       <c r="E2" t="n">
-        <v>263.3828147651795</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>227.225808618441</v>
+        <v>117.4465461936175</v>
       </c>
       <c r="G2" t="n">
-        <v>263.3828147651795</v>
+        <v>12.83532033605545</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3507887739396</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7938006179689</v>
+        <v>152.7938006179688</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.2947308627104</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -746,19 +746,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.0233325848003</v>
       </c>
       <c r="H3" t="n">
-        <v>99.4852405450068</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>43.94290942807549</v>
+        <v>43.9429094280754</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,28 +785,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.19058462642715</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.161321588189</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>157.1177307701845</v>
       </c>
       <c r="V3" t="n">
-        <v>89.16136478846906</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -825,13 +825,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>105.3104898418656</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -867,25 +867,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>204.7281204196193</v>
       </c>
       <c r="T4" t="n">
-        <v>113.659092964036</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>263.3828147651795</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
         <v>263.7138800015061</v>
       </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
       <c r="F5" t="n">
-        <v>19.98946990210314</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>263.7138800015061</v>
+        <v>12.83417464571001</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.8280576942314</v>
       </c>
       <c r="T5" t="n">
-        <v>212.2897156032233</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V5" t="n">
         <v>263.7138800015061</v>
@@ -977,10 +977,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>122.7875717708227</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -989,13 +989,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>9.554409849568346</v>
       </c>
       <c r="I6" t="n">
-        <v>43.92180400150561</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,28 +1022,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>18.15252495527771</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1053,31 +1053,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>20.71835152068967</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>38.84316678192564</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888212</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1101,16 +1101,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S7" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>129.7556361602831</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>155.9254952997715</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1293,7 +1293,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>166.9834522257306</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1308,10 +1308,10 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1350,16 +1350,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>191.9165980458619</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="12">
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>20.25102067617261</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>35.88641949135544</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1618,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1773,10 +1773,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1827,13 +1827,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>78.6882778203391</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>32.26041896250234</v>
       </c>
     </row>
     <row r="17">
@@ -1909,7 +1909,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2004,10 +2004,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>128.1306638699257</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2016,13 +2016,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>108.5813113004301</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2067,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2089,7 +2089,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722605</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2247,19 +2247,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>98.79136808967668</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>36.4306205949047</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2301,10 +2301,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2371,7 +2371,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2386,7 +2386,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>69.82863813027228</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2490,13 +2490,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>91.32784210538742</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2715,13 +2715,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>2.60701007315258</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>104.8913819999782</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -2730,10 +2730,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2775,7 +2775,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2809,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2952,10 +2952,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>91.87132188694034</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>38.61213096654735</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -2967,10 +2967,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3189,10 +3189,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -3204,10 +3204,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>21.63824106824953</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>218.6610218294561</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3271,7 +3271,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3426,19 +3426,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>50.06209150957608</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3483,13 +3483,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>191.9440058362632</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3511,7 +3511,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722623</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3663,7 +3663,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -3678,10 +3678,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,25 +3708,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>140.3829797864969</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>101.9268484343554</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3754,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3909,16 +3909,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>46.86766651429448</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3954,7 +3954,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>19.88691958258334</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4027,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4137,25 +4137,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>142.6584215897761</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4200,10 +4200,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>100.1928033809251</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>899.1940867193352</v>
+        <v>684.7549646357951</v>
       </c>
       <c r="C2" t="n">
-        <v>899.1940867193352</v>
+        <v>418.7117173982386</v>
       </c>
       <c r="D2" t="n">
-        <v>899.1940867193352</v>
+        <v>152.6684701606821</v>
       </c>
       <c r="E2" t="n">
-        <v>633.1508394817802</v>
+        <v>152.6684701606821</v>
       </c>
       <c r="F2" t="n">
-        <v>403.6298206752741</v>
+        <v>34.03559521763412</v>
       </c>
       <c r="G2" t="n">
-        <v>137.586573437719</v>
+        <v>21.07062518121447</v>
       </c>
       <c r="H2" t="n">
-        <v>137.586573437719</v>
+        <v>21.07062518121447</v>
       </c>
       <c r="I2" t="n">
-        <v>21.07062518121436</v>
+        <v>21.07062518121447</v>
       </c>
       <c r="J2" t="n">
-        <v>49.15993901467277</v>
+        <v>49.15993901467363</v>
       </c>
       <c r="K2" t="n">
-        <v>141.9970572935553</v>
+        <v>141.9970572935566</v>
       </c>
       <c r="L2" t="n">
-        <v>294.0714735959959</v>
+        <v>294.071473595998</v>
       </c>
       <c r="M2" t="n">
-        <v>494.953000779596</v>
+        <v>494.9530007795988</v>
       </c>
       <c r="N2" t="n">
-        <v>703.6988094670305</v>
+        <v>703.6988094670342</v>
       </c>
       <c r="O2" t="n">
-        <v>887.4762960288919</v>
+        <v>887.4762960288964</v>
       </c>
       <c r="P2" t="n">
-        <v>1009.825128108064</v>
+        <v>1009.825128108069</v>
       </c>
       <c r="Q2" t="n">
-        <v>1053.531259060718</v>
+        <v>1053.531259060724</v>
       </c>
       <c r="R2" t="n">
-        <v>1053.531259060718</v>
+        <v>1053.531259060724</v>
       </c>
       <c r="S2" t="n">
-        <v>899.1940867193352</v>
+        <v>899.1940867193409</v>
       </c>
       <c r="T2" t="n">
-        <v>899.1940867193352</v>
+        <v>684.7549646357951</v>
       </c>
       <c r="U2" t="n">
-        <v>899.1940867193352</v>
+        <v>684.7549646357951</v>
       </c>
       <c r="V2" t="n">
-        <v>899.1940867193352</v>
+        <v>684.7549646357951</v>
       </c>
       <c r="W2" t="n">
-        <v>899.1940867193352</v>
+        <v>684.7549646357951</v>
       </c>
       <c r="X2" t="n">
-        <v>899.1940867193352</v>
+        <v>684.7549646357951</v>
       </c>
       <c r="Y2" t="n">
-        <v>899.1940867193352</v>
+        <v>684.7549646357951</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>314.8819540071952</v>
+        <v>511.0265726892098</v>
       </c>
       <c r="C3" t="n">
-        <v>314.8819540071952</v>
+        <v>511.0265726892098</v>
       </c>
       <c r="D3" t="n">
-        <v>165.947544345944</v>
+        <v>362.0921630279586</v>
       </c>
       <c r="E3" t="n">
-        <v>165.947544345944</v>
+        <v>202.854708022503</v>
       </c>
       <c r="F3" t="n">
-        <v>165.947544345944</v>
+        <v>202.854708022503</v>
       </c>
       <c r="G3" t="n">
-        <v>165.947544345944</v>
+        <v>65.45740238129065</v>
       </c>
       <c r="H3" t="n">
-        <v>65.45740238129062</v>
+        <v>65.45740238129065</v>
       </c>
       <c r="I3" t="n">
-        <v>21.07062518121436</v>
+        <v>21.07062518121447</v>
       </c>
       <c r="J3" t="n">
-        <v>21.07062518121436</v>
+        <v>21.07062518121447</v>
       </c>
       <c r="K3" t="n">
-        <v>95.65665001371013</v>
+        <v>95.65665001371065</v>
       </c>
       <c r="L3" t="n">
-        <v>247.2442614226868</v>
+        <v>242.2693060433175</v>
       </c>
       <c r="M3" t="n">
-        <v>437.6911839092726</v>
+        <v>503.0182926608467</v>
       </c>
       <c r="N3" t="n">
-        <v>647.5873146573215</v>
+        <v>738.5421433767079</v>
       </c>
       <c r="O3" t="n">
-        <v>908.3363012748492</v>
+        <v>908.3363012748542</v>
       </c>
       <c r="P3" t="n">
-        <v>1025.278016062217</v>
+        <v>1025.278016062223</v>
       </c>
       <c r="Q3" t="n">
-        <v>1053.531259060718</v>
+        <v>1053.531259060724</v>
       </c>
       <c r="R3" t="n">
-        <v>1035.156931155236</v>
+        <v>1053.531259060724</v>
       </c>
       <c r="S3" t="n">
-        <v>1035.156931155236</v>
+        <v>904.8834594766944</v>
       </c>
       <c r="T3" t="n">
-        <v>1035.156931155236</v>
+        <v>904.8834594766944</v>
       </c>
       <c r="U3" t="n">
-        <v>1035.156931155236</v>
+        <v>746.1786809209525</v>
       </c>
       <c r="V3" t="n">
-        <v>945.0949465204187</v>
+        <v>511.0265726892098</v>
       </c>
       <c r="W3" t="n">
-        <v>690.8575897922171</v>
+        <v>511.0265726892098</v>
       </c>
       <c r="X3" t="n">
-        <v>690.8575897922171</v>
+        <v>511.0265726892098</v>
       </c>
       <c r="Y3" t="n">
-        <v>483.0972910272633</v>
+        <v>511.0265726892098</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>190.0068081091213</v>
+        <v>444.294133855015</v>
       </c>
       <c r="C4" t="n">
-        <v>21.07062518121436</v>
+        <v>275.3579509271082</v>
       </c>
       <c r="D4" t="n">
-        <v>21.07062518121436</v>
+        <v>275.3579509271082</v>
       </c>
       <c r="E4" t="n">
-        <v>21.07062518121436</v>
+        <v>127.444857344715</v>
       </c>
       <c r="F4" t="n">
-        <v>21.07062518121436</v>
+        <v>127.444857344715</v>
       </c>
       <c r="G4" t="n">
-        <v>21.07062518121436</v>
+        <v>21.07062518121447</v>
       </c>
       <c r="H4" t="n">
-        <v>21.07062518121436</v>
+        <v>21.07062518121447</v>
       </c>
       <c r="I4" t="n">
-        <v>21.07062518121436</v>
+        <v>21.07062518121447</v>
       </c>
       <c r="J4" t="n">
-        <v>21.07062518121436</v>
+        <v>21.07062518121447</v>
       </c>
       <c r="K4" t="n">
-        <v>125.4984182940684</v>
+        <v>126.32778054812</v>
       </c>
       <c r="L4" t="n">
-        <v>315.7177729964334</v>
+        <v>316.5471352504853</v>
       </c>
       <c r="M4" t="n">
-        <v>526.6665349030303</v>
+        <v>527.4958971570825</v>
       </c>
       <c r="N4" t="n">
-        <v>738.0340231670076</v>
+        <v>738.86338542106</v>
       </c>
       <c r="O4" t="n">
-        <v>917.249813883627</v>
+        <v>918.0791761376796</v>
       </c>
       <c r="P4" t="n">
-        <v>1047.079201097369</v>
+        <v>1047.079201097374</v>
       </c>
       <c r="Q4" t="n">
-        <v>1053.531259060718</v>
+        <v>1053.531259060724</v>
       </c>
       <c r="R4" t="n">
-        <v>1053.531259060718</v>
+        <v>1053.531259060724</v>
       </c>
       <c r="S4" t="n">
-        <v>1053.531259060718</v>
+        <v>846.7351778287849</v>
       </c>
       <c r="T4" t="n">
-        <v>938.7240944505805</v>
+        <v>846.7351778287849</v>
       </c>
       <c r="U4" t="n">
-        <v>938.7240944505805</v>
+        <v>846.7351778287849</v>
       </c>
       <c r="V4" t="n">
-        <v>684.0396062446937</v>
+        <v>846.7351778287849</v>
       </c>
       <c r="W4" t="n">
-        <v>417.9963590071386</v>
+        <v>846.7351778287849</v>
       </c>
       <c r="X4" t="n">
-        <v>190.0068081091213</v>
+        <v>846.7351778287849</v>
       </c>
       <c r="Y4" t="n">
-        <v>190.0068081091213</v>
+        <v>625.9425986852548</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>307.6661507067965</v>
+        <v>423.8554133656</v>
       </c>
       <c r="C5" t="n">
-        <v>307.6661507067965</v>
+        <v>423.8554133656</v>
       </c>
       <c r="D5" t="n">
-        <v>307.6661507067965</v>
+        <v>423.8554133656</v>
       </c>
       <c r="E5" t="n">
-        <v>307.6661507067965</v>
+        <v>157.4777567984221</v>
       </c>
       <c r="F5" t="n">
-        <v>287.4747669672984</v>
+        <v>150.5322560492186</v>
       </c>
       <c r="G5" t="n">
-        <v>21.09711040012049</v>
+        <v>137.5684432757742</v>
       </c>
       <c r="H5" t="n">
-        <v>21.09711040012049</v>
+        <v>137.5684432757742</v>
       </c>
       <c r="I5" t="n">
         <v>21.09711040012049</v>
@@ -4594,25 +4594,25 @@
         <v>1054.855520006024</v>
       </c>
       <c r="S5" t="n">
-        <v>1054.855520006024</v>
+        <v>943.9180879916491</v>
       </c>
       <c r="T5" t="n">
-        <v>840.4214638411523</v>
+        <v>943.9180879916491</v>
       </c>
       <c r="U5" t="n">
-        <v>840.4214638411523</v>
+        <v>690.2330699327779</v>
       </c>
       <c r="V5" t="n">
-        <v>574.0438072739744</v>
+        <v>423.8554133656</v>
       </c>
       <c r="W5" t="n">
-        <v>574.0438072739744</v>
+        <v>423.8554133656</v>
       </c>
       <c r="X5" t="n">
-        <v>574.0438072739744</v>
+        <v>423.8554133656</v>
       </c>
       <c r="Y5" t="n">
-        <v>574.0438072739744</v>
+        <v>423.8554133656</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>189.4904192610582</v>
+        <v>491.5321548333996</v>
       </c>
       <c r="C6" t="n">
-        <v>189.4904192610582</v>
+        <v>317.0791255522726</v>
       </c>
       <c r="D6" t="n">
-        <v>65.46256898749989</v>
+        <v>168.1447158910213</v>
       </c>
       <c r="E6" t="n">
-        <v>65.46256898749989</v>
+        <v>168.1447158910213</v>
       </c>
       <c r="F6" t="n">
-        <v>65.46256898749989</v>
+        <v>168.1447158910213</v>
       </c>
       <c r="G6" t="n">
-        <v>65.46256898749989</v>
+        <v>30.74802944008852</v>
       </c>
       <c r="H6" t="n">
-        <v>65.46256898749989</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I6" t="n">
         <v>21.09711040012049</v>
       </c>
       <c r="J6" t="n">
-        <v>21.09711040012049</v>
+        <v>117.4455628004805</v>
       </c>
       <c r="K6" t="n">
-        <v>95.78113116957456</v>
+        <v>192.1295835699346</v>
       </c>
       <c r="L6" t="n">
-        <v>242.5255548298711</v>
+        <v>338.8740072302311</v>
       </c>
       <c r="M6" t="n">
-        <v>433.1262439263948</v>
+        <v>529.4746963267548</v>
       </c>
       <c r="N6" t="n">
-        <v>643.1802110289997</v>
+        <v>739.5286634293598</v>
       </c>
       <c r="O6" t="n">
-        <v>904.2569522304907</v>
+        <v>909.4672107560895</v>
       </c>
       <c r="P6" t="n">
-        <v>1021.314552263894</v>
+        <v>1026.524810789493</v>
       </c>
       <c r="Q6" t="n">
         <v>1054.855520006024</v>
       </c>
       <c r="R6" t="n">
-        <v>1054.855520006024</v>
+        <v>1036.519636212814</v>
       </c>
       <c r="S6" t="n">
-        <v>1054.855520006024</v>
+        <v>887.8833378166541</v>
       </c>
       <c r="T6" t="n">
-        <v>1054.855520006024</v>
+        <v>887.8833378166541</v>
       </c>
       <c r="U6" t="n">
-        <v>1054.855520006024</v>
+        <v>659.7474918534676</v>
       </c>
       <c r="V6" t="n">
-        <v>819.7034117742817</v>
+        <v>659.7474918534676</v>
       </c>
       <c r="W6" t="n">
-        <v>565.4660550460801</v>
+        <v>659.7474918534676</v>
       </c>
       <c r="X6" t="n">
-        <v>565.4660550460801</v>
+        <v>659.7474918534676</v>
       </c>
       <c r="Y6" t="n">
-        <v>357.7057562811262</v>
+        <v>659.7474918534676</v>
       </c>
     </row>
     <row r="7">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>394.6098982765326</v>
+        <v>638.7577074748529</v>
       </c>
       <c r="C7" t="n">
-        <v>225.6737153486257</v>
+        <v>469.821524546946</v>
       </c>
       <c r="D7" t="n">
-        <v>75.55707593628995</v>
+        <v>469.821524546946</v>
       </c>
       <c r="E7" t="n">
-        <v>75.55707593628995</v>
+        <v>321.9084309645528</v>
       </c>
       <c r="F7" t="n">
-        <v>75.55707593628995</v>
+        <v>175.0184834666425</v>
       </c>
       <c r="G7" t="n">
-        <v>75.55707593628995</v>
+        <v>175.0184834666425</v>
       </c>
       <c r="H7" t="n">
-        <v>36.32155393434486</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I7" t="n">
-        <v>36.32155393434486</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J7" t="n">
         <v>21.09711040012049</v>
@@ -4749,28 +4749,28 @@
         <v>1054.855520006024</v>
       </c>
       <c r="R7" t="n">
-        <v>1054.855520006024</v>
+        <v>926.0629918407072</v>
       </c>
       <c r="S7" t="n">
-        <v>848.0684854165356</v>
+        <v>926.0629918407072</v>
       </c>
       <c r="T7" t="n">
-        <v>622.5994491745499</v>
+        <v>926.0629918407072</v>
       </c>
       <c r="U7" t="n">
-        <v>622.5994491745499</v>
+        <v>659.6853352735293</v>
       </c>
       <c r="V7" t="n">
-        <v>622.5994491745499</v>
+        <v>659.6853352735293</v>
       </c>
       <c r="W7" t="n">
-        <v>622.5994491745499</v>
+        <v>659.6853352735293</v>
       </c>
       <c r="X7" t="n">
-        <v>394.6098982765326</v>
+        <v>659.6853352735293</v>
       </c>
       <c r="Y7" t="n">
-        <v>394.6098982765326</v>
+        <v>659.6853352735293</v>
       </c>
     </row>
     <row r="8">
@@ -4780,40 +4780,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1688.365042002428</v>
+        <v>373.9157775549433</v>
       </c>
       <c r="C8" t="n">
-        <v>1688.365042002428</v>
+        <v>373.9157775549433</v>
       </c>
       <c r="D8" t="n">
-        <v>1330.099343395678</v>
+        <v>373.9157775549433</v>
       </c>
       <c r="E8" t="n">
-        <v>944.3110907974335</v>
+        <v>373.9157775549433</v>
       </c>
       <c r="F8" t="n">
-        <v>533.3251860078259</v>
+        <v>366.9702768057398</v>
       </c>
       <c r="G8" t="n">
-        <v>117.6204357321147</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
         <v>1656.671415230817</v>
@@ -4831,25 +4831,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400155</v>
+        <v>1975.313418796629</v>
       </c>
       <c r="V8" t="n">
-        <v>2562.339328400155</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W8" t="n">
-        <v>2209.570673130041</v>
+        <v>1291.481876182944</v>
       </c>
       <c r="X8" t="n">
-        <v>2209.570673130041</v>
+        <v>918.0161179218646</v>
       </c>
       <c r="Y8" t="n">
-        <v>1819.431341154229</v>
+        <v>760.5156176190651</v>
       </c>
     </row>
     <row r="9">
@@ -4859,52 +4859,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488047</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756898</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G9" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H9" t="n">
         <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>298.3188265310613</v>
+        <v>423.148951518066</v>
       </c>
       <c r="L9" t="n">
-        <v>593.0223835625329</v>
+        <v>717.8525085495377</v>
       </c>
       <c r="M9" t="n">
-        <v>956.284402521753</v>
+        <v>1081.114527508758</v>
       </c>
       <c r="N9" t="n">
-        <v>1343.569531118698</v>
+        <v>1715.293511287796</v>
       </c>
       <c r="O9" t="n">
-        <v>1675.63996629486</v>
+        <v>2047.363946463958</v>
       </c>
       <c r="P9" t="n">
-        <v>2238.100841080695</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
-        <v>2561.393271046732</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4922,10 +4922,10 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>937.5665200750353</v>
+        <v>682.7064461033923</v>
       </c>
       <c r="C10" t="n">
-        <v>768.6303371471284</v>
+        <v>514.036292340028</v>
       </c>
       <c r="D10" t="n">
-        <v>768.6303371471284</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E10" t="n">
-        <v>620.7172435647353</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F10" t="n">
-        <v>473.8272960668249</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G10" t="n">
-        <v>305.8408313751036</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386098</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V10" t="n">
-        <v>1533.86271359008</v>
+        <v>1381.76163186861</v>
       </c>
       <c r="W10" t="n">
-        <v>1533.86271359008</v>
+        <v>1092.344461831649</v>
       </c>
       <c r="X10" t="n">
-        <v>1340.007564048805</v>
+        <v>864.354910933632</v>
       </c>
       <c r="Y10" t="n">
-        <v>1119.214984905275</v>
+        <v>864.354910933632</v>
       </c>
     </row>
     <row r="11">
@@ -5123,25 +5123,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>671.2000270096659</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1268.578514636218</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1896.176478190825</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>929.7309773356195</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>2191.112710026075</v>
       </c>
       <c r="V13" t="n">
-        <v>1688.385853854706</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W13" t="n">
-        <v>1398.968683817745</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X13" t="n">
-        <v>1170.979132919728</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y13" t="n">
-        <v>950.1865537761979</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="14">
@@ -5260,10 +5260,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
         <v>793.7736536168611</v>
@@ -5275,22 +5275,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5360,25 +5360,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>951.777212765616</v>
+        <v>950.7540666811333</v>
       </c>
       <c r="C16" t="n">
-        <v>782.8410298377091</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="D16" t="n">
-        <v>632.7243904253734</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
         <v>484.8112968429803</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1354.218256739386</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>1354.218256739386</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y16" t="n">
-        <v>1133.425677595856</v>
+        <v>950.7540666811333</v>
       </c>
     </row>
     <row r="17">
@@ -5512,22 +5512,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5557,7 +5557,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5591,28 +5591,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1468.439756756785</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2020.349486996072</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P18" t="n">
-        <v>2443.97263649114</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>741.8431516380886</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C19" t="n">
-        <v>612.4182386381636</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D19" t="n">
-        <v>612.4182386381636</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E19" t="n">
-        <v>464.5051450557705</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F19" t="n">
-        <v>317.6151975578602</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2337.284991357604</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2117.683526380545</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1828.608299724743</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1573.923811518856</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1284.506641481895</v>
       </c>
       <c r="X19" t="n">
-        <v>1144.284195611858</v>
+        <v>1056.517090583878</v>
       </c>
       <c r="Y19" t="n">
-        <v>923.4916164683283</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="20">
@@ -5728,13 +5728,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
         <v>1204.759558406469</v>
@@ -5746,25 +5746,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5773,31 +5773,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5825,34 +5825,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1963.765362972544</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1963.765362972544</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1031.260321675049</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C22" t="n">
-        <v>862.3241387471426</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D22" t="n">
-        <v>712.2074993348068</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E22" t="n">
-        <v>564.2944057524137</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F22" t="n">
-        <v>417.4044582545033</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2410.164476918741</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2190.563011941682</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1901.48778528588</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1646.803297079993</v>
       </c>
       <c r="W22" t="n">
-        <v>1433.701365648819</v>
+        <v>1357.386127043032</v>
       </c>
       <c r="X22" t="n">
-        <v>1433.701365648819</v>
+        <v>1129.396576145015</v>
       </c>
       <c r="Y22" t="n">
-        <v>1212.908786505289</v>
+        <v>908.6039970014847</v>
       </c>
     </row>
     <row r="23">
@@ -5986,22 +5986,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6065,28 +6065,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>931.4710609784063</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C25" t="n">
-        <v>762.5348780504994</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D25" t="n">
-        <v>612.4182386381636</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E25" t="n">
-        <v>464.5051450557705</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F25" t="n">
-        <v>317.6151975578602</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U25" t="n">
-        <v>1885.210734949511</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V25" t="n">
-        <v>1630.526246743624</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W25" t="n">
-        <v>1341.109076706663</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X25" t="n">
-        <v>1113.119525808646</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y25" t="n">
-        <v>1113.119525808646</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="26">
@@ -6223,25 +6223,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6262,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6302,31 +6302,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>244.2098454714573</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>739.5354516872161</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1336.913939313768</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2516.421633107662</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>803.2707707770323</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>634.3345878491255</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D28" t="n">
-        <v>631.7012443408905</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408905</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1433.70136564882</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1205.711814750802</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>984.9192356072721</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6442,7 +6442,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6451,61 +6451,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,28 +6536,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190824</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P30" t="n">
         <v>2319.799627685893</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1022.530292372933</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C31" t="n">
-        <v>929.7309773356194</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232836</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408905</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T31" t="n">
-        <v>2197.062545487568</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U31" t="n">
-        <v>2197.062545487568</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V31" t="n">
-        <v>1942.378057281681</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W31" t="n">
-        <v>1652.96088724472</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X31" t="n">
-        <v>1424.971336346703</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y31" t="n">
-        <v>1204.178757203173</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="32">
@@ -6694,37 +6694,37 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
         <v>4606.285157492578</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,31 +6773,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>352.5519571452613</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>949.9304447718132</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1577.52840832642</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>801.6605733532801</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C34" t="n">
-        <v>632.7243904253733</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="D34" t="n">
-        <v>632.7243904253733</v>
+        <v>430.7826650753331</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429802</v>
+        <v>282.8695714929399</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>282.8695714929399</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>115.6734722078199</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>2197.062545487568</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U34" t="n">
-        <v>1976.192826467915</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V34" t="n">
-        <v>1721.508338262028</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W34" t="n">
-        <v>1432.091168225067</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X34" t="n">
-        <v>1204.10161732705</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y34" t="n">
-        <v>983.3090381835199</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="35">
@@ -6916,7 +6916,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6925,61 +6925,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P36" t="n">
-        <v>2297.690135143765</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q36" t="n">
-        <v>2530.951795518647</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>530.3315352860773</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C37" t="n">
-        <v>530.3315352860773</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D37" t="n">
-        <v>530.3315352860773</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E37" t="n">
-        <v>382.4184417036842</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2396.395314378669</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2213.540480033573</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>1993.939015056514</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1704.863788400712</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1450.179300194825</v>
+        <v>1561.54872342426</v>
       </c>
       <c r="W37" t="n">
-        <v>1160.762130157864</v>
+        <v>1272.131553387299</v>
       </c>
       <c r="X37" t="n">
-        <v>932.7725792598471</v>
+        <v>1272.131553387299</v>
       </c>
       <c r="Y37" t="n">
-        <v>711.980000116317</v>
+        <v>1051.338974243769</v>
       </c>
     </row>
     <row r="38">
@@ -7153,7 +7153,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7162,61 +7162,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,31 +7247,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q39" t="n">
         <v>2516.421633107662</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1098.667160263526</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="C40" t="n">
-        <v>929.7309773356194</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232836</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408905</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>2160.315914855604</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>2160.315914855604</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>2018.514925172274</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W40" t="n">
-        <v>1729.097755135313</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X40" t="n">
-        <v>1501.108204237296</v>
+        <v>1108.373486799501</v>
       </c>
       <c r="Y40" t="n">
-        <v>1280.315625093766</v>
+        <v>887.5809076559709</v>
       </c>
     </row>
     <row r="41">
@@ -7390,7 +7390,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7399,22 +7399,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7423,37 +7423,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,31 +7484,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1468.439756756785</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>782.841029837709</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C43" t="n">
-        <v>782.841029837709</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="D43" t="n">
-        <v>632.7243904253733</v>
+        <v>430.7826650753331</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429802</v>
+        <v>282.8695714929399</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>1957.373282952344</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V43" t="n">
-        <v>1702.688794746457</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W43" t="n">
-        <v>1413.271624709496</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X43" t="n">
-        <v>1185.282073811479</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y43" t="n">
-        <v>964.4894946679487</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="44">
@@ -7627,7 +7627,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
         <v>1590.547811004713</v>
@@ -7636,61 +7636,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7712,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7721,34 +7721,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1468.439756756785</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O45" t="n">
-        <v>2020.349486996072</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P45" t="n">
-        <v>2443.97263649114</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>633.4413279836774</v>
+        <v>991.7436897307817</v>
       </c>
       <c r="C46" t="n">
-        <v>464.5051450557705</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D46" t="n">
-        <v>464.5051450557705</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E46" t="n">
-        <v>464.5051450557705</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F46" t="n">
-        <v>317.6151975578601</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="Y46" t="n">
-        <v>815.0897928139171</v>
+        <v>1173.392154561021</v>
       </c>
     </row>
   </sheetData>
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.59164343877319</v>
+        <v>60.59164343877291</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,22 +8057,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.109135423079664</v>
+        <v>2.109135423079437</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>5.025207453909388</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>71.01218599085115</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>25.88658582607255</v>
       </c>
       <c r="O3" t="n">
-        <v>91.87356436301212</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -8139,7 +8139,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>105.9060266940957</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
         <v>162.4747015415544</v>
@@ -8154,7 +8154,7 @@
         <v>163.0416663658825</v>
       </c>
       <c r="P4" t="n">
-        <v>135.0065633140411</v>
+        <v>134.1688236634881</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>2.051220519418308</v>
+        <v>99.37288961069106</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8309,13 +8309,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>92.05878169167812</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>5.262887399594774</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8543,19 +8543,19 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>249.3877325071649</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>154.0169020165195</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>21.89339468985681</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>159.5809595057647</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,19 +23463,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>250.2980548978887</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23661,10 +23661,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23715,13 +23715,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>207.8347205162519</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>186.3242343895924</v>
       </c>
     </row>
     <row r="17">
@@ -23892,10 +23892,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>39.11615722870218</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23904,13 +23904,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>72.44497470121448</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23955,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24135,19 +24135,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>66.73277020259216</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>144.5956654067399</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24189,10 +24189,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>110.003342051665</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24378,13 +24378,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>194.8566322838567</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24603,13 +24603,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>146.0084629450598</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>41.54258064659096</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24663,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24840,10 +24840,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>75.3754992116875</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>110.003342051665</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25077,10 +25077,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>118.6564717779744</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>67.52345255978807</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25314,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>16.31315520054558</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25371,13 +25371,13 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>60.19363748756484</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25551,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,25 +25596,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>111.7546635373311</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>123.7828069546817</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25797,16 +25797,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>98.55338150863676</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>266.2975548066608</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26025,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>24.58839950885172</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>118.3918499711696</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>818735.5350252402</v>
+        <v>818735.5350252403</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>818735.5350252403</v>
+        <v>818735.5350252402</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>818735.5350252402</v>
+        <v>818735.5350252403</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>818735.5350252402</v>
+        <v>818735.5350252403</v>
       </c>
     </row>
   </sheetData>
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>615781.3273982126</v>
+      </c>
+      <c r="C2" t="n">
         <v>615781.3273982123</v>
-      </c>
-      <c r="C2" t="n">
-        <v>615781.3273982125</v>
       </c>
       <c r="D2" t="n">
         <v>615781.3273982127</v>
@@ -26325,37 +26325,37 @@
         <v>605359.9497675045</v>
       </c>
       <c r="F2" t="n">
+        <v>605359.9497675041</v>
+      </c>
+      <c r="G2" t="n">
+        <v>605359.9497675041</v>
+      </c>
+      <c r="H2" t="n">
+        <v>605359.9497675041</v>
+      </c>
+      <c r="I2" t="n">
         <v>605359.9497675042</v>
-      </c>
-      <c r="G2" t="n">
-        <v>605359.9497675044</v>
-      </c>
-      <c r="H2" t="n">
-        <v>605359.9497675046</v>
-      </c>
-      <c r="I2" t="n">
-        <v>605359.9497675045</v>
       </c>
       <c r="J2" t="n">
         <v>605359.9497675044</v>
       </c>
       <c r="K2" t="n">
-        <v>605359.9497675046</v>
+        <v>605359.9497675042</v>
       </c>
       <c r="L2" t="n">
-        <v>605359.9497675045</v>
+        <v>605359.9497675044</v>
       </c>
       <c r="M2" t="n">
-        <v>605359.9497675045</v>
+        <v>605359.9497675044</v>
       </c>
       <c r="N2" t="n">
-        <v>605359.9497675046</v>
+        <v>605359.9497675042</v>
       </c>
       <c r="O2" t="n">
-        <v>605359.9497675045</v>
+        <v>605359.9497675042</v>
       </c>
       <c r="P2" t="n">
-        <v>605359.9497675041</v>
+        <v>605359.9497675044</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>679702.4124909283</v>
+        <v>679702.4124909298</v>
       </c>
       <c r="C3" t="n">
-        <v>366.4703680948757</v>
+        <v>366.4703680933911</v>
       </c>
       <c r="D3" t="n">
-        <v>391128.3638059438</v>
+        <v>391128.3638059436</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245458</v>
+        <v>507485.441624546</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,13 +26389,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68912.53318642081</v>
+        <v>68912.533186421</v>
       </c>
       <c r="K3" t="n">
-        <v>85.20559774293172</v>
+        <v>85.2055977425441</v>
       </c>
       <c r="L3" t="n">
-        <v>95382.64613756977</v>
+        <v>95382.64613756971</v>
       </c>
       <c r="M3" t="n">
         <v>132607.2937289267</v>
@@ -26417,10 +26417,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>253116.5477674034</v>
+        <v>253116.547767403</v>
       </c>
       <c r="C4" t="n">
-        <v>253016.7649073352</v>
+        <v>253016.7649073353</v>
       </c>
       <c r="D4" t="n">
         <v>142746.9572676995</v>
@@ -26435,7 +26435,7 @@
         <v>12386.92018181813</v>
       </c>
       <c r="H4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181819</v>
       </c>
       <c r="I4" t="n">
         <v>12386.92018181813</v>
@@ -26447,7 +26447,7 @@
         <v>12386.92018181813</v>
       </c>
       <c r="L4" t="n">
-        <v>12386.92018181809</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="M4" t="n">
         <v>12386.92018181813</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63021.46164557681</v>
+        <v>63021.46164557693</v>
       </c>
       <c r="C5" t="n">
         <v>63047.80320426619</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-380059.0945056963</v>
+        <v>-380059.0945056971</v>
       </c>
       <c r="C6" t="n">
-        <v>299350.2889185162</v>
+        <v>299350.2889185175</v>
       </c>
       <c r="D6" t="n">
-        <v>-11031.76611527518</v>
+        <v>-11031.76611527504</v>
       </c>
       <c r="E6" t="n">
-        <v>-15634.94186276656</v>
+        <v>-15982.32111712367</v>
       </c>
       <c r="F6" t="n">
-        <v>491850.499761779</v>
+        <v>491503.120507422</v>
       </c>
       <c r="G6" t="n">
-        <v>491850.4997617792</v>
+        <v>491503.120507422</v>
       </c>
       <c r="H6" t="n">
-        <v>491850.4997617794</v>
+        <v>491503.1205074219</v>
       </c>
       <c r="I6" t="n">
-        <v>491850.4997617793</v>
+        <v>491503.1205074221</v>
       </c>
       <c r="J6" t="n">
-        <v>422937.9665753583</v>
+        <v>422590.5873210011</v>
       </c>
       <c r="K6" t="n">
-        <v>491765.2941640365</v>
+        <v>491417.9149096795</v>
       </c>
       <c r="L6" t="n">
-        <v>396467.8536242095</v>
+        <v>396120.4743698525</v>
       </c>
       <c r="M6" t="n">
-        <v>359243.2060328525</v>
+        <v>358895.8267784955</v>
       </c>
       <c r="N6" t="n">
-        <v>491850.4997617794</v>
+        <v>491503.1205074221</v>
       </c>
       <c r="O6" t="n">
-        <v>491850.4997617793</v>
+        <v>491503.1205074221</v>
       </c>
       <c r="P6" t="n">
-        <v>491850.4997617789</v>
+        <v>491503.1205074222</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>613.7700232960505</v>
+        <v>613.7700232960516</v>
       </c>
       <c r="C3" t="n">
         <v>614.055013769478</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.3828147651795</v>
+        <v>263.3828147651809</v>
       </c>
       <c r="C4" t="n">
         <v>263.7138800015061</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26816,22 +26816,22 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>613.7700232960505</v>
+        <v>613.7700232960516</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2849904734275697</v>
+        <v>0.2849904734264328</v>
       </c>
       <c r="D3" t="n">
-        <v>320.0098783480612</v>
+        <v>320.0098783480611</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241345</v>
+        <v>433.9106082241346</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26983,7 +26983,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.3828147651795</v>
+        <v>263.3828147651809</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3310652363265909</v>
+        <v>0.3310652363252001</v>
       </c>
       <c r="D4" t="n">
-        <v>376.8709520985328</v>
+        <v>376.8709520985327</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.3828147651795</v>
+        <v>263.3828147651809</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3310652363267062</v>
+        <v>0.3310652363252001</v>
       </c>
       <c r="L4" t="n">
-        <v>376.8709520985328</v>
+        <v>376.8709520985326</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.3828147651795</v>
+        <v>263.3828147651809</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3310652363265909</v>
+        <v>0.3310652363252001</v>
       </c>
       <c r="L4" t="n">
-        <v>376.8709520985328</v>
+        <v>376.8709520985327</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,25 +27381,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>101.8900770058266</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>91.30022685550205</v>
       </c>
       <c r="E2" t="n">
-        <v>118.5475553070823</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>179.6502371232705</v>
+        <v>289.429499548094</v>
       </c>
       <c r="G2" t="n">
-        <v>149.452505570876</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>314.2053659305182</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>115.3507887739394</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,7 +27432,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2947308627104</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.1482595335101</v>
@@ -27457,7 +27457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -27466,16 +27466,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0233325848003</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>99.48524054500679</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27505,28 +27505,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.190584626427</v>
       </c>
       <c r="S3" t="n">
-        <v>147.161321588189</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>194.8434583985096</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8545278323952</v>
+        <v>68.73679706221071</v>
       </c>
       <c r="V3" t="n">
-        <v>143.6392223609562</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27545,22 +27545,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.8841809557937</v>
+        <v>61.57369111392818</v>
       </c>
       <c r="H4" t="n">
         <v>152.3867285273816</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1660284180233</v>
+        <v>122.1660284180232</v>
       </c>
       <c r="J4" t="n">
-        <v>15.10853304825665</v>
+        <v>15.1085330482565</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5277104718865</v>
+        <v>127.5277104718864</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7281204196193</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>109.5574487437677</v>
+        <v>223.2165417078037</v>
       </c>
       <c r="U4" t="n">
         <v>286.2586585345273</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>23.14018357141151</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>119.0199616619745</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27624,19 +27624,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>118.2164900707557</v>
       </c>
       <c r="F5" t="n">
-        <v>386.8865758396083</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>149.1202946442039</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>314.193632629268</v>
       </c>
       <c r="I5" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,13 +27666,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>152.7676931992223</v>
+        <v>42.93963550499086</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>212.2897156032233</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>64.03837846862882</v>
@@ -27697,10 +27697,10 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>24.65749379381609</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -27709,13 +27709,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>99.47932027120976</v>
+        <v>89.92491042164141</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>43.92180400150561</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,28 +27742,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527771</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>194.8409875848768</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27773,31 +27773,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>159.1136286612476</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.8836670385466</v>
       </c>
       <c r="H7" t="n">
-        <v>113.5389925539311</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>122.1505735248086</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>15.07219909888212</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,16 +27821,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2586305026775</v>
+        <v>22.54475050117141</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27839,7 +27839,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>252.9782055031975</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>230.312443356282</v>
       </c>
     </row>
     <row r="9">
@@ -28013,7 +28013,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>0.2633688728972174</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28028,10 +28028,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
         <v>194.6624603617375</v>
@@ -28070,16 +28070,16 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>33.79305734317529</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28809,7 +28809,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>1.307398633798584e-12</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.467417179079598</v>
+        <v>2.467417179079602</v>
       </c>
       <c r="H2" t="n">
-        <v>25.26943618524894</v>
+        <v>25.26943618524898</v>
       </c>
       <c r="I2" t="n">
-        <v>95.1251007964663</v>
+        <v>95.12510079646647</v>
       </c>
       <c r="J2" t="n">
-        <v>209.4189488029072</v>
+        <v>209.4189488029076</v>
       </c>
       <c r="K2" t="n">
-        <v>313.8647179933466</v>
+        <v>313.8647179933473</v>
       </c>
       <c r="L2" t="n">
-        <v>389.376936487604</v>
+        <v>389.3769364876047</v>
       </c>
       <c r="M2" t="n">
-        <v>433.2568667460608</v>
+        <v>433.2568667460616</v>
       </c>
       <c r="N2" t="n">
-        <v>440.2674158061207</v>
+        <v>440.2674158061215</v>
       </c>
       <c r="O2" t="n">
-        <v>415.732036231648</v>
+        <v>415.7320362316487</v>
       </c>
       <c r="P2" t="n">
-        <v>354.8176746231203</v>
+        <v>354.817674623121</v>
       </c>
       <c r="Q2" t="n">
-        <v>266.4532968973321</v>
+        <v>266.4532968973326</v>
       </c>
       <c r="R2" t="n">
-        <v>154.9938943753589</v>
+        <v>154.9938943753592</v>
       </c>
       <c r="S2" t="n">
-        <v>56.22626896827639</v>
+        <v>56.2262689682765</v>
       </c>
       <c r="T2" t="n">
-        <v>10.80111870142095</v>
+        <v>10.80111870142096</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1973933743263678</v>
+        <v>0.1973933743263682</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.320184578410373</v>
+        <v>1.320184578410375</v>
       </c>
       <c r="H3" t="n">
-        <v>12.75020369148965</v>
+        <v>12.75020369148968</v>
       </c>
       <c r="I3" t="n">
-        <v>45.45372342333959</v>
+        <v>45.45372342333967</v>
       </c>
       <c r="J3" t="n">
-        <v>124.728491243587</v>
+        <v>124.7284912435873</v>
       </c>
       <c r="K3" t="n">
-        <v>213.180857997082</v>
+        <v>213.1808579970824</v>
       </c>
       <c r="L3" t="n">
-        <v>286.6479717289715</v>
+        <v>286.647971728972</v>
       </c>
       <c r="M3" t="n">
-        <v>334.5046626963475</v>
+        <v>334.5046626963481</v>
       </c>
       <c r="N3" t="n">
-        <v>343.3580057682311</v>
+        <v>343.3580057682317</v>
       </c>
       <c r="O3" t="n">
-        <v>314.1054948466118</v>
+        <v>314.1054948466124</v>
       </c>
       <c r="P3" t="n">
-        <v>252.0973516439948</v>
+        <v>252.0973516439953</v>
       </c>
       <c r="Q3" t="n">
-        <v>168.5204033774364</v>
+        <v>168.5204033774367</v>
       </c>
       <c r="R3" t="n">
-        <v>81.96724952621598</v>
+        <v>81.96724952621614</v>
       </c>
       <c r="S3" t="n">
-        <v>24.52184951564879</v>
+        <v>24.52184951564884</v>
       </c>
       <c r="T3" t="n">
-        <v>5.321270296311983</v>
+        <v>5.321270296311993</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08685424857962983</v>
+        <v>0.08685424857962998</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.106798402665009</v>
+        <v>1.106798402665011</v>
       </c>
       <c r="H4" t="n">
-        <v>9.840443980057996</v>
+        <v>9.840443980058014</v>
       </c>
       <c r="I4" t="n">
-        <v>33.284446509235</v>
+        <v>33.28444650923507</v>
       </c>
       <c r="J4" t="n">
-        <v>78.25064706841613</v>
+        <v>78.25064706841627</v>
       </c>
       <c r="K4" t="n">
-        <v>128.5898507823528</v>
+        <v>128.5898507823531</v>
       </c>
       <c r="L4" t="n">
-        <v>164.5507370653051</v>
+        <v>164.5507370653054</v>
       </c>
       <c r="M4" t="n">
-        <v>173.4956805195704</v>
+        <v>173.4956805195707</v>
       </c>
       <c r="N4" t="n">
-        <v>169.3703410187283</v>
+        <v>169.3703410187286</v>
       </c>
       <c r="O4" t="n">
-        <v>156.4409233148688</v>
+        <v>156.4409233148691</v>
       </c>
       <c r="P4" t="n">
-        <v>133.8622359005025</v>
+        <v>133.8622359005027</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.67927351770362</v>
+        <v>92.67927351770379</v>
       </c>
       <c r="R4" t="n">
-        <v>49.76568090528303</v>
+        <v>49.76568090528312</v>
       </c>
       <c r="S4" t="n">
-        <v>19.28847761735292</v>
+        <v>19.28847761735296</v>
       </c>
       <c r="T4" t="n">
-        <v>4.729047720477764</v>
+        <v>4.729047720477773</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06037082196354601</v>
+        <v>0.06037082196354612</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31518,43 +31518,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31597,10 +31597,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31609,7 +31609,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
         <v>509.0653662040588</v>
@@ -31618,25 +31618,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31679,7 +31679,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31694,10 +31694,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31709,13 +31709,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31843,10 +31843,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>570.6116741576916</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
@@ -31858,13 +31858,13 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>354.9153144485699</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32080,28 +32080,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>363.5371514786841</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32311,16 +32311,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32329,13 +32329,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>163.1438255932938</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>250.1723312270667</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32548,13 +32548,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
@@ -32569,13 +32569,13 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>456.5952253539618</v>
+        <v>154.5219885631796</v>
       </c>
       <c r="Q21" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32785,13 +32785,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>175.6052721551106</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32803,13 +32803,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>163.1438255932938</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>138.5955196772183</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>390.1398273256871</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>370.9642309107744</v>
+        <v>369.1789913099997</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>248.7449369209194</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>228.3420541567482</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>353.130074847795</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>168.0123247135882</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
         <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>368.6279838366847</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>353.130074847795</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>250.1723312270667</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>426.9501404413636</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>250.1723312270667</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.37304427622092</v>
+        <v>28.37304427622132</v>
       </c>
       <c r="K2" t="n">
-        <v>93.77486694836608</v>
+        <v>93.77486694836671</v>
       </c>
       <c r="L2" t="n">
-        <v>153.6105215176167</v>
+        <v>153.6105215176175</v>
       </c>
       <c r="M2" t="n">
-        <v>202.910633518788</v>
+        <v>202.9106335187888</v>
       </c>
       <c r="N2" t="n">
-        <v>210.8543522095298</v>
+        <v>210.8543522095306</v>
       </c>
       <c r="O2" t="n">
-        <v>185.6338248099612</v>
+        <v>185.633824809962</v>
       </c>
       <c r="P2" t="n">
-        <v>123.5846788678508</v>
+        <v>123.5846788678514</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.14760702288262</v>
+        <v>44.14760702288314</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>75.33941902272301</v>
+        <v>75.3394190227234</v>
       </c>
       <c r="L3" t="n">
-        <v>153.1187994030067</v>
+        <v>148.0935919490979</v>
       </c>
       <c r="M3" t="n">
-        <v>192.3706287743291</v>
+        <v>263.3828147651809</v>
       </c>
       <c r="N3" t="n">
-        <v>212.0162936848978</v>
+        <v>237.902879510971</v>
       </c>
       <c r="O3" t="n">
-        <v>263.3828147651795</v>
+        <v>171.5092504021679</v>
       </c>
       <c r="P3" t="n">
-        <v>118.1229442296645</v>
+        <v>118.122944229665</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.53862929141485</v>
+        <v>28.53862929141516</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,25 +34859,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>105.4826193059132</v>
+        <v>106.3203589564702</v>
       </c>
       <c r="L4" t="n">
-        <v>192.1407623256212</v>
+        <v>192.1407623256215</v>
       </c>
       <c r="M4" t="n">
-        <v>213.079557481411</v>
+        <v>213.0795574814113</v>
       </c>
       <c r="N4" t="n">
-        <v>213.5025133979568</v>
+        <v>213.5025133979572</v>
       </c>
       <c r="O4" t="n">
-        <v>181.0260512289084</v>
+        <v>181.0260512289087</v>
       </c>
       <c r="P4" t="n">
-        <v>131.140795165396</v>
+        <v>130.3030555148432</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.517230266009236</v>
+        <v>6.517230266009406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>97.32166909127275</v>
       </c>
       <c r="K6" t="n">
         <v>75.43840481763038</v>
@@ -35029,13 +35029,13 @@
         <v>212.1757243460656</v>
       </c>
       <c r="O6" t="n">
-        <v>263.7138800015061</v>
+        <v>171.655098309828</v>
       </c>
       <c r="P6" t="n">
         <v>118.2400000337409</v>
       </c>
       <c r="Q6" t="n">
-        <v>33.8797653960911</v>
+        <v>28.61687799649633</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091742</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K9" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="O9" t="n">
         <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>568.1422977634695</v>
+        <v>403.6964311400517</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R9" t="n">
-        <v>0.9556134883069083</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
         <v>278.0112915831069</v>
@@ -35342,7 +35342,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
         <v>262.6644876295069</v>
@@ -35351,7 +35351,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35491,10 +35491,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>432.0572943778175</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
@@ -35506,13 +35506,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35728,28 +35728,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35959,16 +35959,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35977,13 +35977,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>20.54758114884936</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>110.1905571410452</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36196,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
@@ -36217,13 +36217,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>322.6208179396315</v>
+        <v>20.54758114884936</v>
       </c>
       <c r="Q21" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36433,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>37.76383318075158</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36451,13 +36451,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>20.54758114884936</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0.7540807028593151</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,7 +36916,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36925,13 +36925,13 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>228.3679864663299</v>
+        <v>226.5827468655553</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,31 +37144,31 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>110.1905571410452</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>97.00034207341486</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,25 +37390,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>22.33282074962425</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,25 +37627,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>237.2862717533515</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,31 +37855,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>110.1905571410452</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>295.6084283580303</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>110.1905571410452</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_19_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_19_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2276105.48495429</v>
+        <v>2277866.015257075</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283188</v>
       </c>
     </row>
     <row r="9">
@@ -661,16 +661,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>263.3828147651809</v>
+        <v>263.3828147651807</v>
       </c>
       <c r="D2" t="n">
-        <v>263.3828147651809</v>
+        <v>263.3828147651807</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>219.1522629091157</v>
       </c>
       <c r="F2" t="n">
-        <v>117.4465461936175</v>
+        <v>263.3828147651807</v>
       </c>
       <c r="G2" t="n">
         <v>12.83532033605545</v>
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7938006179688</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2947308627104</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -743,22 +743,22 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>136.0233325848003</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>99.48524054500679</v>
       </c>
       <c r="I3" t="n">
-        <v>43.9429094280754</v>
+        <v>43.94290942807541</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.19058462642701</v>
       </c>
       <c r="S3" t="n">
         <v>147.161321588189</v>
@@ -794,10 +794,10 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>157.1177307701845</v>
+        <v>225.8545278323952</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>48.76381808703465</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -822,16 +822,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>105.3104898418656</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7281204196193</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -876,13 +876,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>82.1474445008036</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -904,7 +904,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.8280576942314</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U5" t="n">
         <v>251.1481678782825</v>
@@ -958,7 +958,7 @@
         <v>263.7138800015061</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>123.7911484401894</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -986,16 +986,16 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>9.554409849568346</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,28 +1022,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527771</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S6" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>123.9078401795517</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1053,31 +1053,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>20.71835152068967</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>152.3821593358568</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1110,19 +1110,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>30.35581875858439</v>
+      </c>
+      <c r="W7" t="n">
         <v>263.7138800015061</v>
       </c>
-      <c r="V7" t="n">
-        <v>0</v>
-      </c>
-      <c r="W7" t="n">
-        <v>0</v>
-      </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1135,7 +1135,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1183,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>35.54361781414437</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.045250128462</v>
@@ -1201,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>155.9254952997715</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1293,10 +1293,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>166.9834522257306</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1305,7 +1305,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>50.98074812542835</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1359,7 +1359,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1426,7 +1426,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1575,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>35.88641949135544</v>
+        <v>40.6225301034174</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1618,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695416</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1764,19 +1764,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>32.26041896250234</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1852,7 +1852,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.930370072261</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1909,7 +1909,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2007,19 +2007,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>108.5813113004301</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2086,10 +2086,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722605</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2244,19 +2244,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>9.146142788179368</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>36.4306205949047</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>69.82863813027228</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2608,7 +2608,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2617,7 +2617,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2715,25 +2715,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>104.8913819999782</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>112.5005260950196</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2955,19 +2955,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>38.61213096654735</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3189,25 +3189,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>21.63824106824953</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>1.294096136280033</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3243,7 +3243,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3271,7 +3271,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3322,7 +3322,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3429,10 +3429,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3441,7 +3441,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3483,13 +3483,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>191.9440058362632</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3663,7 +3663,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3720,13 +3720,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>181.2557668969882</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>101.9268484343554</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3900,22 +3900,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>46.86766651429448</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3960,7 +3960,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>75.55208621972916</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4137,16 +4137,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>142.6584215897761</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>684.7549646357951</v>
+        <v>1053.531259060723</v>
       </c>
       <c r="C2" t="n">
-        <v>418.7117173982386</v>
+        <v>787.4880118231665</v>
       </c>
       <c r="D2" t="n">
-        <v>152.6684701606821</v>
+        <v>521.4447645856103</v>
       </c>
       <c r="E2" t="n">
-        <v>152.6684701606821</v>
+        <v>300.0788424551904</v>
       </c>
       <c r="F2" t="n">
-        <v>34.03559521763412</v>
+        <v>34.0355952176341</v>
       </c>
       <c r="G2" t="n">
-        <v>21.07062518121447</v>
+        <v>21.07062518121446</v>
       </c>
       <c r="H2" t="n">
-        <v>21.07062518121447</v>
+        <v>21.07062518121446</v>
       </c>
       <c r="I2" t="n">
-        <v>21.07062518121447</v>
+        <v>21.07062518121446</v>
       </c>
       <c r="J2" t="n">
-        <v>49.15993901467363</v>
+        <v>49.15993901467354</v>
       </c>
       <c r="K2" t="n">
-        <v>141.9970572935566</v>
+        <v>141.9970572935565</v>
       </c>
       <c r="L2" t="n">
-        <v>294.071473595998</v>
+        <v>294.0714735959973</v>
       </c>
       <c r="M2" t="n">
-        <v>494.9530007795988</v>
+        <v>494.9530007795983</v>
       </c>
       <c r="N2" t="n">
-        <v>703.6988094670342</v>
+        <v>703.6988094670334</v>
       </c>
       <c r="O2" t="n">
-        <v>887.4762960288964</v>
+        <v>887.4762960288956</v>
       </c>
       <c r="P2" t="n">
-        <v>1009.825128108069</v>
+        <v>1009.825128108068</v>
       </c>
       <c r="Q2" t="n">
-        <v>1053.531259060724</v>
+        <v>1053.531259060723</v>
       </c>
       <c r="R2" t="n">
-        <v>1053.531259060724</v>
+        <v>1053.531259060723</v>
       </c>
       <c r="S2" t="n">
-        <v>899.1940867193409</v>
+        <v>1053.531259060723</v>
       </c>
       <c r="T2" t="n">
-        <v>684.7549646357951</v>
+        <v>1053.531259060723</v>
       </c>
       <c r="U2" t="n">
-        <v>684.7549646357951</v>
+        <v>1053.531259060723</v>
       </c>
       <c r="V2" t="n">
-        <v>684.7549646357951</v>
+        <v>1053.531259060723</v>
       </c>
       <c r="W2" t="n">
-        <v>684.7549646357951</v>
+        <v>1053.531259060723</v>
       </c>
       <c r="X2" t="n">
-        <v>684.7549646357951</v>
+        <v>1053.531259060723</v>
       </c>
       <c r="Y2" t="n">
-        <v>684.7549646357951</v>
+        <v>1053.531259060723</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>511.0265726892098</v>
+        <v>609.116862965727</v>
       </c>
       <c r="C3" t="n">
-        <v>511.0265726892098</v>
+        <v>609.116862965727</v>
       </c>
       <c r="D3" t="n">
-        <v>362.0921630279586</v>
+        <v>609.116862965727</v>
       </c>
       <c r="E3" t="n">
-        <v>202.854708022503</v>
+        <v>449.8794079602715</v>
       </c>
       <c r="F3" t="n">
-        <v>202.854708022503</v>
+        <v>303.3448499871564</v>
       </c>
       <c r="G3" t="n">
-        <v>65.45740238129065</v>
+        <v>165.947544345944</v>
       </c>
       <c r="H3" t="n">
-        <v>65.45740238129065</v>
+        <v>65.45740238129063</v>
       </c>
       <c r="I3" t="n">
-        <v>21.07062518121447</v>
+        <v>21.07062518121446</v>
       </c>
       <c r="J3" t="n">
-        <v>21.07062518121447</v>
+        <v>117.0004092799686</v>
       </c>
       <c r="K3" t="n">
-        <v>95.65665001371065</v>
+        <v>191.5864341124647</v>
       </c>
       <c r="L3" t="n">
-        <v>242.2693060433175</v>
+        <v>338.1990901420715</v>
       </c>
       <c r="M3" t="n">
-        <v>503.0182926608467</v>
+        <v>528.6460126286579</v>
       </c>
       <c r="N3" t="n">
-        <v>738.5421433767079</v>
+        <v>738.5421433767073</v>
       </c>
       <c r="O3" t="n">
-        <v>908.3363012748542</v>
+        <v>908.3363012748534</v>
       </c>
       <c r="P3" t="n">
-        <v>1025.278016062223</v>
+        <v>1025.278016062222</v>
       </c>
       <c r="Q3" t="n">
-        <v>1053.531259060724</v>
+        <v>1053.531259060723</v>
       </c>
       <c r="R3" t="n">
-        <v>1053.531259060724</v>
+        <v>1035.156931155241</v>
       </c>
       <c r="S3" t="n">
-        <v>904.8834594766944</v>
+        <v>886.5091315712117</v>
       </c>
       <c r="T3" t="n">
-        <v>904.8834594766944</v>
+        <v>886.5091315712117</v>
       </c>
       <c r="U3" t="n">
-        <v>746.1786809209525</v>
+        <v>658.3732448718226</v>
       </c>
       <c r="V3" t="n">
-        <v>511.0265726892098</v>
+        <v>609.116862965727</v>
       </c>
       <c r="W3" t="n">
-        <v>511.0265726892098</v>
+        <v>609.116862965727</v>
       </c>
       <c r="X3" t="n">
-        <v>511.0265726892098</v>
+        <v>609.116862965727</v>
       </c>
       <c r="Y3" t="n">
-        <v>511.0265726892098</v>
+        <v>609.116862965727</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>444.294133855015</v>
+        <v>340.1234475214571</v>
       </c>
       <c r="C4" t="n">
-        <v>275.3579509271082</v>
+        <v>171.1872645935502</v>
       </c>
       <c r="D4" t="n">
-        <v>275.3579509271082</v>
+        <v>21.07062518121446</v>
       </c>
       <c r="E4" t="n">
-        <v>127.444857344715</v>
+        <v>21.07062518121446</v>
       </c>
       <c r="F4" t="n">
-        <v>127.444857344715</v>
+        <v>21.07062518121446</v>
       </c>
       <c r="G4" t="n">
-        <v>21.07062518121447</v>
+        <v>21.07062518121446</v>
       </c>
       <c r="H4" t="n">
-        <v>21.07062518121447</v>
+        <v>21.07062518121446</v>
       </c>
       <c r="I4" t="n">
-        <v>21.07062518121447</v>
+        <v>21.07062518121446</v>
       </c>
       <c r="J4" t="n">
-        <v>21.07062518121447</v>
+        <v>21.07062518121446</v>
       </c>
       <c r="K4" t="n">
-        <v>126.32778054812</v>
+        <v>126.3277805481199</v>
       </c>
       <c r="L4" t="n">
-        <v>316.5471352504853</v>
+        <v>316.5471352504852</v>
       </c>
       <c r="M4" t="n">
-        <v>527.4958971570825</v>
+        <v>527.4958971570824</v>
       </c>
       <c r="N4" t="n">
-        <v>738.86338542106</v>
+        <v>738.8633854210599</v>
       </c>
       <c r="O4" t="n">
-        <v>918.0791761376796</v>
+        <v>918.0791761376795</v>
       </c>
       <c r="P4" t="n">
-        <v>1047.079201097374</v>
+        <v>1047.908563351422</v>
       </c>
       <c r="Q4" t="n">
-        <v>1053.531259060724</v>
+        <v>1053.531259060723</v>
       </c>
       <c r="R4" t="n">
-        <v>1053.531259060724</v>
+        <v>1053.531259060723</v>
       </c>
       <c r="S4" t="n">
-        <v>846.7351778287849</v>
+        <v>1053.531259060723</v>
       </c>
       <c r="T4" t="n">
-        <v>846.7351778287849</v>
+        <v>1053.531259060723</v>
       </c>
       <c r="U4" t="n">
-        <v>846.7351778287849</v>
+        <v>1053.531259060723</v>
       </c>
       <c r="V4" t="n">
-        <v>846.7351778287849</v>
+        <v>970.5540423932443</v>
       </c>
       <c r="W4" t="n">
-        <v>846.7351778287849</v>
+        <v>970.5540423932443</v>
       </c>
       <c r="X4" t="n">
-        <v>846.7351778287849</v>
+        <v>742.564491495227</v>
       </c>
       <c r="Y4" t="n">
-        <v>625.9425986852548</v>
+        <v>521.7719123516969</v>
       </c>
     </row>
     <row r="5">
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>423.8554133656</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="C5" t="n">
-        <v>423.8554133656</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="D5" t="n">
-        <v>423.8554133656</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="E5" t="n">
-        <v>157.4777567984221</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="F5" t="n">
-        <v>150.5322560492186</v>
+        <v>34.06092317356495</v>
       </c>
       <c r="G5" t="n">
-        <v>137.5684432757742</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H5" t="n">
-        <v>137.5684432757742</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I5" t="n">
         <v>21.09711040012049</v>
       </c>
       <c r="J5" t="n">
-        <v>49.2826908791767</v>
+        <v>49.28269087917579</v>
       </c>
       <c r="K5" t="n">
-        <v>142.2640879052547</v>
+        <v>142.264087905254</v>
       </c>
       <c r="L5" t="n">
-        <v>294.517494751591</v>
+        <v>294.5174947515905</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030607</v>
+        <v>495.5981834030603</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991318</v>
+        <v>704.5463761991316</v>
       </c>
       <c r="O5" t="n">
         <v>888.5149683358413</v>
@@ -4588,31 +4588,31 @@
         <v>1011.026904601763</v>
       </c>
       <c r="Q5" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R5" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S5" t="n">
-        <v>943.9180879916491</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="T5" t="n">
-        <v>943.9180879916491</v>
+        <v>686.1106626298169</v>
       </c>
       <c r="U5" t="n">
-        <v>690.2330699327779</v>
+        <v>432.4256445709457</v>
       </c>
       <c r="V5" t="n">
-        <v>423.8554133656</v>
+        <v>166.0479880037678</v>
       </c>
       <c r="W5" t="n">
-        <v>423.8554133656</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="X5" t="n">
-        <v>423.8554133656</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="Y5" t="n">
-        <v>423.8554133656</v>
+        <v>41.00642392276842</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>491.5321548333996</v>
+        <v>535.3845659029931</v>
       </c>
       <c r="C6" t="n">
-        <v>317.0791255522726</v>
+        <v>360.9315366218661</v>
       </c>
       <c r="D6" t="n">
-        <v>168.1447158910213</v>
+        <v>211.9971269606149</v>
       </c>
       <c r="E6" t="n">
-        <v>168.1447158910213</v>
+        <v>211.9971269606149</v>
       </c>
       <c r="F6" t="n">
-        <v>168.1447158910213</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="G6" t="n">
-        <v>30.74802944008852</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="H6" t="n">
-        <v>21.09711040012049</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="I6" t="n">
         <v>21.09711040012049</v>
       </c>
       <c r="J6" t="n">
-        <v>117.4455628004805</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K6" t="n">
-        <v>192.1295835699346</v>
+        <v>95.78113116957465</v>
       </c>
       <c r="L6" t="n">
-        <v>338.8740072302311</v>
+        <v>242.5255548298713</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4746963267548</v>
+        <v>433.1262439263951</v>
       </c>
       <c r="N6" t="n">
-        <v>739.5286634293598</v>
+        <v>643.1802110290001</v>
       </c>
       <c r="O6" t="n">
-        <v>909.4672107560895</v>
+        <v>813.1187583557299</v>
       </c>
       <c r="P6" t="n">
-        <v>1026.524810789493</v>
+        <v>930.1763583891335</v>
       </c>
       <c r="Q6" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R6" t="n">
-        <v>1036.519636212814</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="S6" t="n">
-        <v>887.8833378166541</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="T6" t="n">
-        <v>887.8833378166541</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="U6" t="n">
-        <v>659.7474918534676</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="V6" t="n">
-        <v>659.7474918534676</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="W6" t="n">
-        <v>659.7474918534676</v>
+        <v>911.360201688015</v>
       </c>
       <c r="X6" t="n">
-        <v>659.7474918534676</v>
+        <v>911.360201688015</v>
       </c>
       <c r="Y6" t="n">
-        <v>659.7474918534676</v>
+        <v>703.5999029230611</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>638.7577074748529</v>
+        <v>355.3743762745875</v>
       </c>
       <c r="C7" t="n">
-        <v>469.821524546946</v>
+        <v>186.4381933466806</v>
       </c>
       <c r="D7" t="n">
-        <v>469.821524546946</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="E7" t="n">
-        <v>321.9084309645528</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="F7" t="n">
-        <v>175.0184834666425</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="G7" t="n">
-        <v>175.0184834666425</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="H7" t="n">
-        <v>21.09711040012049</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="I7" t="n">
-        <v>21.09711040012049</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="J7" t="n">
         <v>21.09711040012049</v>
       </c>
       <c r="K7" t="n">
-        <v>126.4133765287946</v>
+        <v>126.4133765287949</v>
       </c>
       <c r="L7" t="n">
-        <v>316.7083726551007</v>
+        <v>316.708372655101</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375333</v>
+        <v>527.7368878375337</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227043</v>
+        <v>739.1822330227046</v>
       </c>
       <c r="O7" t="n">
-        <v>918.469937207554</v>
+        <v>918.4699372075543</v>
       </c>
       <c r="P7" t="n">
-        <v>1048.360858816802</v>
+        <v>1048.360858816803</v>
       </c>
       <c r="Q7" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R7" t="n">
-        <v>926.0629918407072</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S7" t="n">
-        <v>926.0629918407072</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T7" t="n">
-        <v>926.0629918407072</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U7" t="n">
-        <v>659.6853352735293</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V7" t="n">
-        <v>659.6853352735293</v>
+        <v>1024.193076815535</v>
       </c>
       <c r="W7" t="n">
-        <v>659.6853352735293</v>
+        <v>757.8154202483573</v>
       </c>
       <c r="X7" t="n">
-        <v>659.6853352735293</v>
+        <v>757.8154202483573</v>
       </c>
       <c r="Y7" t="n">
-        <v>659.6853352735293</v>
+        <v>537.0228411048272</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>373.9157775549433</v>
+        <v>438.8191504929254</v>
       </c>
       <c r="C8" t="n">
-        <v>373.9157775549433</v>
+        <v>69.85663355251364</v>
       </c>
       <c r="D8" t="n">
-        <v>373.9157775549433</v>
+        <v>69.85663355251364</v>
       </c>
       <c r="E8" t="n">
-        <v>373.9157775549433</v>
+        <v>69.85663355251364</v>
       </c>
       <c r="F8" t="n">
-        <v>366.9702768057398</v>
+        <v>62.91113280331017</v>
       </c>
       <c r="G8" t="n">
-        <v>355.3059305704328</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
         <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4831,25 +4831,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926625</v>
+        <v>2526.436684143444</v>
       </c>
       <c r="T8" t="n">
-        <v>2228.89447953245</v>
+        <v>2526.436684143444</v>
       </c>
       <c r="U8" t="n">
-        <v>1975.313418796629</v>
+        <v>2272.855623407624</v>
       </c>
       <c r="V8" t="n">
-        <v>1644.250531453059</v>
+        <v>1941.792736064053</v>
       </c>
       <c r="W8" t="n">
-        <v>1291.481876182944</v>
+        <v>1589.024080793939</v>
       </c>
       <c r="X8" t="n">
-        <v>918.0161179218646</v>
+        <v>1215.558322532859</v>
       </c>
       <c r="Y8" t="n">
-        <v>760.5156176190651</v>
+        <v>825.4189905570472</v>
       </c>
     </row>
     <row r="9">
@@ -4859,49 +4859,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F9" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182524</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
         <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>423.148951518066</v>
+        <v>684.9695361605188</v>
       </c>
       <c r="L9" t="n">
-        <v>717.8525085495377</v>
+        <v>979.6730931919906</v>
       </c>
       <c r="M9" t="n">
-        <v>1081.114527508758</v>
+        <v>1342.935112151211</v>
       </c>
       <c r="N9" t="n">
-        <v>1715.293511287796</v>
+        <v>1730.220240748156</v>
       </c>
       <c r="O9" t="n">
-        <v>2047.363946463958</v>
+        <v>2062.290675924318</v>
       </c>
       <c r="P9" t="n">
-        <v>2447.023413292609</v>
+        <v>2309.473409756615</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4922,10 +4922,10 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4938,49 +4938,49 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>682.7064461033923</v>
+        <v>716.5983551657496</v>
       </c>
       <c r="C10" t="n">
-        <v>514.036292340028</v>
+        <v>547.6621722378427</v>
       </c>
       <c r="D10" t="n">
-        <v>514.036292340028</v>
+        <v>397.5455328255069</v>
       </c>
       <c r="E10" t="n">
-        <v>366.1231987576349</v>
+        <v>249.6324392431138</v>
       </c>
       <c r="F10" t="n">
-        <v>219.2332512597245</v>
+        <v>102.7424917452035</v>
       </c>
       <c r="G10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
@@ -4998,16 +4998,16 @@
         <v>1636.446120074497</v>
       </c>
       <c r="V10" t="n">
-        <v>1381.76163186861</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W10" t="n">
-        <v>1092.344461831649</v>
+        <v>1347.028950037537</v>
       </c>
       <c r="X10" t="n">
-        <v>864.354910933632</v>
+        <v>1119.039399139519</v>
       </c>
       <c r="Y10" t="n">
-        <v>864.354910933632</v>
+        <v>898.2468199959893</v>
       </c>
     </row>
     <row r="11">
@@ -5041,13 +5041,13 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014779</v>
@@ -5077,13 +5077,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5129,13 +5129,13 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O12" t="n">
-        <v>2297.690135143765</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P12" t="n">
         <v>2516.421633107662</v>
@@ -5223,16 +5223,16 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>2191.112710026075</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="V13" t="n">
         <v>1936.428221820188</v>
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5275,22 +5275,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5305,13 +5305,13 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5372,13 +5372,13 @@
         <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>950.7540666811333</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>781.8178837532264</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D16" t="n">
-        <v>631.7012443408906</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="F16" t="n">
         <v>484.8112968429803</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>950.7540666811333</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5491,13 +5491,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
         <v>1204.759558406469</v>
@@ -5509,19 +5509,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014778</v>
@@ -5530,25 +5530,25 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123002</v>
@@ -5557,10 +5557,10 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5588,10 +5588,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J18" t="n">
         <v>245.2306927803937</v>
@@ -5609,10 +5609,10 @@
         <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>874.8686257536381</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>705.9324428257312</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D19" t="n">
-        <v>555.8158034133954</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2337.284991357604</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2117.683526380545</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U19" t="n">
-        <v>1828.608299724743</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>1573.923811518856</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1284.506641481895</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>1056.517090583878</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>1056.517090583878</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5728,13 +5728,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
         <v>1204.759558406469</v>
@@ -5746,25 +5746,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5773,31 +5773,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5825,10 +5825,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
         <v>245.2306927803937</v>
@@ -5846,10 +5846,10 @@
         <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2299.457522348532</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>726.955532171245</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C22" t="n">
-        <v>558.0193492433381</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D22" t="n">
-        <v>407.9027098310023</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310023</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797186</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5937,25 +5937,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2410.164476918741</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>2190.563011941682</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1901.48778528588</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1646.803297079993</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1357.386127043032</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>1129.396576145015</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y22" t="n">
-        <v>908.6039970014847</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="23">
@@ -5971,37 +5971,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6083,10 +6083,10 @@
         <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>705.9324428257312</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D25" t="n">
-        <v>555.8158034133954</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310023</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6229,16 +6229,16 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6262,7 +6262,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
         <v>3467.980956852889</v>
@@ -6320,7 +6320,7 @@
         <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2299.457522348532</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C28" t="n">
-        <v>513.8536007400712</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D28" t="n">
-        <v>513.8536007400712</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310023</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6411,25 +6411,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2266.280484787188</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2046.67901981013</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1757.603793154328</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1502.919304948441</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1213.50213491148</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>985.5125840134626</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="29">
@@ -6466,16 +6466,16 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6484,7 +6484,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6499,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6554,13 +6554,13 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1671.859558793925</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>763.7541388327643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>594.8179559048574</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6688,7 +6688,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168615</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6700,19 +6700,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6736,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6791,13 +6791,13 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1767.889897446606</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>580.8993044876688</v>
+        <v>869.9745311434712</v>
       </c>
       <c r="C34" t="n">
-        <v>580.8993044876688</v>
+        <v>701.0383482155643</v>
       </c>
       <c r="D34" t="n">
-        <v>430.7826650753331</v>
+        <v>550.9217088032285</v>
       </c>
       <c r="E34" t="n">
-        <v>282.8695714929399</v>
+        <v>550.9217088032285</v>
       </c>
       <c r="F34" t="n">
-        <v>282.8695714929399</v>
+        <v>404.0317613053181</v>
       </c>
       <c r="G34" t="n">
-        <v>115.6734722078199</v>
+        <v>236.8356620201981</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>95.12383086239615</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6891,19 +6891,19 @@
         <v>2044.506784258106</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1789.822296052219</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1500.405126015258</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3403484614387</v>
+        <v>1272.415575117241</v>
       </c>
       <c r="Y34" t="n">
-        <v>762.5477693179085</v>
+        <v>1051.622995973711</v>
       </c>
     </row>
     <row r="35">
@@ -6931,16 +6931,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6949,37 +6949,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7010,10 +7010,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
         <v>245.2306927803937</v>
@@ -7031,13 +7031,13 @@
         <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2299.457522348532</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>869.6905094135296</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>700.7543264856228</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>550.637687073287</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1561.54872342426</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1272.131553387299</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1272.131553387299</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1051.338974243769</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7162,16 +7162,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111715</v>
@@ -7195,7 +7195,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7247,10 +7247,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J39" t="n">
         <v>245.2306927803937</v>
@@ -7268,13 +7268,13 @@
         <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2299.457522348532</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,7 +7308,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>705.9324428257312</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C40" t="n">
         <v>705.9324428257312</v>
@@ -7323,13 +7323,13 @@
         <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X40" t="n">
-        <v>1108.373486799501</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y40" t="n">
-        <v>887.5809076559709</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="41">
@@ -7402,61 +7402,61 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7484,10 +7484,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J42" t="n">
         <v>245.2306927803937</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>580.8993044876688</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C43" t="n">
-        <v>580.8993044876688</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D43" t="n">
-        <v>430.7826650753331</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E43" t="n">
-        <v>282.8695714929399</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F43" t="n">
-        <v>235.5284942057738</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1357.386127043032</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614387</v>
+        <v>1129.396576145015</v>
       </c>
       <c r="Y43" t="n">
-        <v>762.5477693179085</v>
+        <v>908.6039970014847</v>
       </c>
     </row>
     <row r="44">
@@ -7627,25 +7627,25 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362693</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111717</v>
@@ -7657,40 +7657,40 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7721,10 +7721,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J45" t="n">
         <v>245.2306927803937</v>
@@ -7739,16 +7739,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>991.7436897307817</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>847.6442739835331</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D46" t="n">
-        <v>697.5276345711974</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E46" t="n">
-        <v>549.6145409888043</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G46" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1394.184733704551</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>1173.392154561021</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.59164343877291</v>
+        <v>60.59164343877293</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.109135423079437</v>
+        <v>99.00790724000279</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8066,10 +8066,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>71.01218599085115</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>25.88658582607255</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -8154,10 +8154,10 @@
         <v>163.0416663658825</v>
       </c>
       <c r="P4" t="n">
-        <v>134.1688236634881</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q4" t="n">
-        <v>65.34295837775146</v>
+        <v>64.50521872719769</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>60.51967546761162</v>
+        <v>60.51967546761153</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>99.37288961069106</v>
+        <v>2.051220519418266</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8315,7 +8315,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>97.32166909127237</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8543,19 +8543,19 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>249.3877325071649</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>154.0169020165195</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>138.9393975111057</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154991</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23463,19 +23463,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>250.2980548978887</v>
+        <v>245.5619442858267</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23652,19 +23652,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>116.6691671648112</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>186.3242343895924</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23895,19 +23895,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>72.44497470121448</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24132,19 +24132,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>136.2749052347519</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24177,7 +24177,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>144.5956654067399</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>110.003342051665</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24603,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>41.54258064659096</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,7 +24651,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>68.52575990662497</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24843,19 +24843,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>110.003342051665</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25077,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>118.6564717779744</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>79.9717401822855</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25317,10 +25317,10 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25329,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25371,13 +25371,13 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>60.19363748756484</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -25551,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25608,13 +25608,13 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>70.88187642683982</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>123.7828069546817</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25788,22 +25788,22 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>98.55338150863676</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25848,7 +25848,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>210.9709121168618</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26025,16 +26025,16 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>24.58839950885172</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>818735.5350252403</v>
+        <v>818735.5350252402</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>818735.5350252402</v>
+        <v>818735.5350252403</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>818735.5350252403</v>
+        <v>818735.5350252402</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>818735.5350252403</v>
+        <v>818735.5350252402</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>818735.5350252403</v>
+        <v>818735.5350252402</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>818735.5350252403</v>
+        <v>818735.5350252402</v>
       </c>
     </row>
   </sheetData>
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.3273982126</v>
+        <v>615781.3273982123</v>
       </c>
       <c r="C2" t="n">
-        <v>615781.3273982123</v>
+        <v>615781.3273982122</v>
       </c>
       <c r="D2" t="n">
         <v>615781.3273982127</v>
@@ -26325,37 +26325,37 @@
         <v>605359.9497675045</v>
       </c>
       <c r="F2" t="n">
-        <v>605359.9497675041</v>
+        <v>605359.9497675046</v>
       </c>
       <c r="G2" t="n">
-        <v>605359.9497675041</v>
+        <v>605359.9497675042</v>
       </c>
       <c r="H2" t="n">
-        <v>605359.9497675041</v>
+        <v>605359.9497675042</v>
       </c>
       <c r="I2" t="n">
         <v>605359.9497675042</v>
       </c>
       <c r="J2" t="n">
-        <v>605359.9497675044</v>
+        <v>605359.9497675046</v>
       </c>
       <c r="K2" t="n">
+        <v>605359.9497675041</v>
+      </c>
+      <c r="L2" t="n">
+        <v>605359.9497675041</v>
+      </c>
+      <c r="M2" t="n">
+        <v>605359.9497675041</v>
+      </c>
+      <c r="N2" t="n">
+        <v>605359.9497675045</v>
+      </c>
+      <c r="O2" t="n">
+        <v>605359.9497675041</v>
+      </c>
+      <c r="P2" t="n">
         <v>605359.9497675042</v>
-      </c>
-      <c r="L2" t="n">
-        <v>605359.9497675044</v>
-      </c>
-      <c r="M2" t="n">
-        <v>605359.9497675044</v>
-      </c>
-      <c r="N2" t="n">
-        <v>605359.9497675042</v>
-      </c>
-      <c r="O2" t="n">
-        <v>605359.9497675042</v>
-      </c>
-      <c r="P2" t="n">
-        <v>605359.9497675044</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>679702.4124909298</v>
+        <v>679702.4124909297</v>
       </c>
       <c r="C3" t="n">
-        <v>366.4703680933911</v>
+        <v>366.4703680937848</v>
       </c>
       <c r="D3" t="n">
-        <v>391128.3638059436</v>
+        <v>391128.3638059435</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.441624546</v>
+        <v>507485.4416245458</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68912.533186421</v>
+        <v>68912.53318642093</v>
       </c>
       <c r="K3" t="n">
-        <v>85.2055977425441</v>
+        <v>85.20559774261037</v>
       </c>
       <c r="L3" t="n">
-        <v>95382.64613756971</v>
+        <v>95382.64613756974</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289267</v>
+        <v>132607.2937289266</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,22 +26420,22 @@
         <v>253116.547767403</v>
       </c>
       <c r="C4" t="n">
-        <v>253016.7649073353</v>
+        <v>253016.7649073352</v>
       </c>
       <c r="D4" t="n">
         <v>142746.9572676995</v>
       </c>
       <c r="E4" t="n">
+        <v>12386.92018181818</v>
+      </c>
+      <c r="F4" t="n">
+        <v>12386.92018181818</v>
+      </c>
+      <c r="G4" t="n">
+        <v>12386.92018181817</v>
+      </c>
+      <c r="H4" t="n">
         <v>12386.92018181813</v>
-      </c>
-      <c r="F4" t="n">
-        <v>12386.92018181813</v>
-      </c>
-      <c r="G4" t="n">
-        <v>12386.92018181813</v>
-      </c>
-      <c r="H4" t="n">
-        <v>12386.92018181819</v>
       </c>
       <c r="I4" t="n">
         <v>12386.92018181813</v>
@@ -26450,7 +26450,7 @@
         <v>12386.92018181813</v>
       </c>
       <c r="M4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181818</v>
       </c>
       <c r="N4" t="n">
         <v>12386.92018181813</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63021.46164557693</v>
+        <v>63021.4616455769</v>
       </c>
       <c r="C5" t="n">
         <v>63047.80320426619</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-380059.0945056971</v>
+        <v>-380059.0945056974</v>
       </c>
       <c r="C6" t="n">
-        <v>299350.2889185175</v>
+        <v>299350.2889185169</v>
       </c>
       <c r="D6" t="n">
-        <v>-11031.76611527504</v>
+        <v>-11031.76611527489</v>
       </c>
       <c r="E6" t="n">
-        <v>-15982.32111712367</v>
+        <v>-15669.67978820229</v>
       </c>
       <c r="F6" t="n">
-        <v>491503.120507422</v>
+        <v>491815.7618363436</v>
       </c>
       <c r="G6" t="n">
-        <v>491503.120507422</v>
+        <v>491815.7618363433</v>
       </c>
       <c r="H6" t="n">
-        <v>491503.1205074219</v>
+        <v>491815.7618363433</v>
       </c>
       <c r="I6" t="n">
-        <v>491503.1205074221</v>
+        <v>491815.7618363433</v>
       </c>
       <c r="J6" t="n">
-        <v>422590.5873210011</v>
+        <v>422903.2286499227</v>
       </c>
       <c r="K6" t="n">
-        <v>491417.9149096795</v>
+        <v>491730.5562386006</v>
       </c>
       <c r="L6" t="n">
-        <v>396120.4743698525</v>
+        <v>396433.1156987734</v>
       </c>
       <c r="M6" t="n">
-        <v>358895.8267784955</v>
+        <v>359208.4681074165</v>
       </c>
       <c r="N6" t="n">
-        <v>491503.1205074221</v>
+        <v>491815.7618363436</v>
       </c>
       <c r="O6" t="n">
-        <v>491503.1205074221</v>
+        <v>491815.7618363433</v>
       </c>
       <c r="P6" t="n">
-        <v>491503.1205074222</v>
+        <v>491815.7618363434</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>613.7700232960516</v>
+        <v>613.7700232960515</v>
       </c>
       <c r="C3" t="n">
-        <v>614.055013769478</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.3828147651809</v>
+        <v>263.3828147651807</v>
       </c>
       <c r="C4" t="n">
         <v>263.7138800015061</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>613.7700232960516</v>
+        <v>613.7700232960515</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2849904734264328</v>
+        <v>0.2849904734267739</v>
       </c>
       <c r="D3" t="n">
-        <v>320.0098783480611</v>
+        <v>320.009878348061</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241346</v>
+        <v>433.9106082241345</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.3828147651809</v>
+        <v>263.3828147651807</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3310652363252001</v>
+        <v>0.3310652363254576</v>
       </c>
       <c r="D4" t="n">
         <v>376.8709520985327</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.3828147651809</v>
+        <v>263.3828147651807</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3310652363252001</v>
+        <v>0.3310652363254576</v>
       </c>
       <c r="L4" t="n">
-        <v>376.8709520985326</v>
+        <v>376.8709520985327</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996093</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.3828147651809</v>
+        <v>263.3828147651807</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3310652363252001</v>
+        <v>0.3310652363254576</v>
       </c>
       <c r="L4" t="n">
         <v>376.8709520985327</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,16 +27381,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>101.8900770058266</v>
+        <v>101.8900770058269</v>
       </c>
       <c r="D2" t="n">
-        <v>91.30022685550205</v>
+        <v>91.30022685550227</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>162.7781071631461</v>
       </c>
       <c r="F2" t="n">
-        <v>289.429499548094</v>
+        <v>143.4932309765308</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27399,7 +27399,7 @@
         <v>314.2053659305182</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3507887739394</v>
+        <v>115.3507887739395</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.7938006179689</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.2947308627104</v>
       </c>
       <c r="U2" t="n">
         <v>251.1482595335101</v>
@@ -27463,19 +27463,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>99.48524054500679</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27505,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.190584626427</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -27514,10 +27514,10 @@
         <v>194.8434583985096</v>
       </c>
       <c r="U3" t="n">
-        <v>68.73679706221071</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>184.0367690623906</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -27542,16 +27542,16 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>61.57369111392818</v>
+        <v>166.8841809557937</v>
       </c>
       <c r="H4" t="n">
         <v>152.3867285273816</v>
@@ -27560,7 +27560,7 @@
         <v>122.1660284180232</v>
       </c>
       <c r="J4" t="n">
-        <v>15.1085330482565</v>
+        <v>15.10853304825652</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27587,7 +27587,7 @@
         <v>127.5277104718864</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>204.7281204196193</v>
       </c>
       <c r="T4" t="n">
         <v>223.2165417078037</v>
@@ -27596,13 +27596,13 @@
         <v>286.2586585345273</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>169.9901988230244</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27624,7 +27624,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>118.2164900707557</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27636,7 +27636,7 @@
         <v>314.193632629268</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,19 +27666,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>42.93963550499086</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>212.2897156032233</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>64.03837846862882</v>
+        <v>64.03837846862876</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>225.4498202772236</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27706,16 +27706,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
-        <v>89.92491042164141</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I6" t="n">
-        <v>43.92180400150561</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27745,25 +27745,25 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T6" t="n">
         <v>194.8409875848768</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>127.7871429813679</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27773,31 +27773,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>159.1136286612476</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.8836670385466</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I7" t="n">
-        <v>122.1505735248086</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888212</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S7" t="n">
         <v>204.7191642435938</v>
@@ -27830,19 +27830,19 @@
         <v>223.2143458795659</v>
       </c>
       <c r="U7" t="n">
-        <v>22.54475050117141</v>
+        <v>286.2586305026775</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>221.7818245652436</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>22.80911833508486</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27855,7 +27855,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27870,7 +27870,7 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
         <v>65.70991267247049</v>
@@ -27903,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>87.90859758465</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>230.312443356282</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28013,10 +28013,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2633688728972174</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28025,10 +28025,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>115.3258519193758</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28070,7 +28070,7 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28079,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28146,7 +28146,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>1.133261760295336e-12</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -28377,7 +28377,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>1.133261760295336e-12</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -28572,7 +28572,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>8.038590482916834e-13</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -28809,7 +28809,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>1.307398633798584e-12</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -30042,7 +30042,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -31047,28 +31047,28 @@
         <v>25.26943618524898</v>
       </c>
       <c r="I2" t="n">
-        <v>95.12510079646647</v>
+        <v>95.12510079646646</v>
       </c>
       <c r="J2" t="n">
         <v>209.4189488029076</v>
       </c>
       <c r="K2" t="n">
-        <v>313.8647179933473</v>
+        <v>313.8647179933472</v>
       </c>
       <c r="L2" t="n">
-        <v>389.3769364876047</v>
+        <v>389.3769364876046</v>
       </c>
       <c r="M2" t="n">
-        <v>433.2568667460616</v>
+        <v>433.2568667460615</v>
       </c>
       <c r="N2" t="n">
-        <v>440.2674158061215</v>
+        <v>440.2674158061214</v>
       </c>
       <c r="O2" t="n">
-        <v>415.7320362316487</v>
+        <v>415.7320362316486</v>
       </c>
       <c r="P2" t="n">
-        <v>354.817674623121</v>
+        <v>354.8176746231209</v>
       </c>
       <c r="Q2" t="n">
         <v>266.4532968973326</v>
@@ -31077,13 +31077,13 @@
         <v>154.9938943753592</v>
       </c>
       <c r="S2" t="n">
-        <v>56.2262689682765</v>
+        <v>56.22626896827649</v>
       </c>
       <c r="T2" t="n">
         <v>10.80111870142096</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1973933743263682</v>
+        <v>0.1973933743263681</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31129,40 +31129,40 @@
         <v>45.45372342333967</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7284912435873</v>
+        <v>124.7284912435872</v>
       </c>
       <c r="K3" t="n">
-        <v>213.1808579970824</v>
+        <v>213.1808579970823</v>
       </c>
       <c r="L3" t="n">
         <v>286.647971728972</v>
       </c>
       <c r="M3" t="n">
-        <v>334.5046626963481</v>
+        <v>334.504662696348</v>
       </c>
       <c r="N3" t="n">
         <v>343.3580057682317</v>
       </c>
       <c r="O3" t="n">
-        <v>314.1054948466124</v>
+        <v>314.1054948466123</v>
       </c>
       <c r="P3" t="n">
-        <v>252.0973516439953</v>
+        <v>252.0973516439952</v>
       </c>
       <c r="Q3" t="n">
         <v>168.5204033774367</v>
       </c>
       <c r="R3" t="n">
-        <v>81.96724952621614</v>
+        <v>81.96724952621612</v>
       </c>
       <c r="S3" t="n">
         <v>24.52184951564884</v>
       </c>
       <c r="T3" t="n">
-        <v>5.321270296311993</v>
+        <v>5.321270296311992</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08685424857962998</v>
+        <v>0.08685424857962996</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31202,16 +31202,16 @@
         <v>1.106798402665011</v>
       </c>
       <c r="H4" t="n">
-        <v>9.840443980058014</v>
+        <v>9.840443980058012</v>
       </c>
       <c r="I4" t="n">
-        <v>33.28444650923507</v>
+        <v>33.28444650923506</v>
       </c>
       <c r="J4" t="n">
-        <v>78.25064706841627</v>
+        <v>78.25064706841626</v>
       </c>
       <c r="K4" t="n">
-        <v>128.5898507823531</v>
+        <v>128.589850782353</v>
       </c>
       <c r="L4" t="n">
         <v>164.5507370653054</v>
@@ -31220,28 +31220,28 @@
         <v>173.4956805195707</v>
       </c>
       <c r="N4" t="n">
-        <v>169.3703410187286</v>
+        <v>169.3703410187285</v>
       </c>
       <c r="O4" t="n">
-        <v>156.4409233148691</v>
+        <v>156.440923314869</v>
       </c>
       <c r="P4" t="n">
         <v>133.8622359005027</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.67927351770379</v>
+        <v>92.67927351770378</v>
       </c>
       <c r="R4" t="n">
-        <v>49.76568090528312</v>
+        <v>49.76568090528311</v>
       </c>
       <c r="S4" t="n">
-        <v>19.28847761735296</v>
+        <v>19.28847761735295</v>
       </c>
       <c r="T4" t="n">
-        <v>4.729047720477773</v>
+        <v>4.729047720477772</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06037082196354612</v>
+        <v>0.06037082196354611</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.468562869425035</v>
+        <v>2.468562869425036</v>
       </c>
       <c r="H5" t="n">
-        <v>25.28116948649915</v>
+        <v>25.28116948649916</v>
       </c>
       <c r="I5" t="n">
-        <v>95.16927002350877</v>
+        <v>95.1692700235088</v>
       </c>
       <c r="J5" t="n">
-        <v>209.5161878388633</v>
+        <v>209.5161878388634</v>
       </c>
       <c r="K5" t="n">
-        <v>314.0104541016251</v>
+        <v>314.0104541016252</v>
       </c>
       <c r="L5" t="n">
-        <v>389.5577350167916</v>
+        <v>389.5577350167918</v>
       </c>
       <c r="M5" t="n">
-        <v>433.458039945929</v>
+        <v>433.4580399459292</v>
       </c>
       <c r="N5" t="n">
-        <v>440.471844198683</v>
+        <v>440.4718441986831</v>
       </c>
       <c r="O5" t="n">
-        <v>415.9250721658378</v>
+        <v>415.9250721658379</v>
       </c>
       <c r="P5" t="n">
-        <v>354.9824263269072</v>
+        <v>354.9824263269073</v>
       </c>
       <c r="Q5" t="n">
-        <v>266.577018565623</v>
+        <v>266.5770185656231</v>
       </c>
       <c r="R5" t="n">
-        <v>155.0658623465205</v>
+        <v>155.0658623465206</v>
       </c>
       <c r="S5" t="n">
-        <v>56.25237638702305</v>
+        <v>56.25237638702307</v>
       </c>
       <c r="T5" t="n">
         <v>10.8061339609081</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1974850295540028</v>
+        <v>0.1974850295540029</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.320797576787179</v>
+        <v>1.32079757678718</v>
       </c>
       <c r="H6" t="n">
         <v>12.75612396528671</v>
       </c>
       <c r="I6" t="n">
-        <v>45.47482884990946</v>
+        <v>45.47482884990948</v>
       </c>
       <c r="J6" t="n">
         <v>124.7864061472484</v>
       </c>
       <c r="K6" t="n">
-        <v>213.2798437919894</v>
+        <v>213.2798437919895</v>
       </c>
       <c r="L6" t="n">
-        <v>286.7810703458303</v>
+        <v>286.7810703458304</v>
       </c>
       <c r="M6" t="n">
-        <v>334.6599825043655</v>
+        <v>334.6599825043656</v>
       </c>
       <c r="N6" t="n">
-        <v>343.5174364293989</v>
+        <v>343.517436429399</v>
       </c>
       <c r="O6" t="n">
-        <v>314.2513427542724</v>
+        <v>314.2513427542725</v>
       </c>
       <c r="P6" t="n">
-        <v>252.2144074480711</v>
+        <v>252.2144074480712</v>
       </c>
       <c r="Q6" t="n">
-        <v>168.5986520825178</v>
+        <v>168.5986520825179</v>
       </c>
       <c r="R6" t="n">
-        <v>82.00530919736542</v>
+        <v>82.00530919736545</v>
       </c>
       <c r="S6" t="n">
-        <v>24.53323569163904</v>
+        <v>24.53323569163905</v>
       </c>
       <c r="T6" t="n">
-        <v>5.323741109944812</v>
+        <v>5.323741109944814</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08689457742020919</v>
+        <v>0.08689457742020923</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.107312319912173</v>
+        <v>1.107312319912174</v>
       </c>
       <c r="H7" t="n">
-        <v>9.845013171582785</v>
+        <v>9.845013171582789</v>
       </c>
       <c r="I7" t="n">
-        <v>33.29990140244973</v>
+        <v>33.29990140244975</v>
       </c>
       <c r="J7" t="n">
-        <v>78.28698101779065</v>
+        <v>78.28698101779068</v>
       </c>
       <c r="K7" t="n">
         <v>128.6495586225234</v>
       </c>
       <c r="L7" t="n">
-        <v>164.6271425440335</v>
+        <v>164.6271425440336</v>
       </c>
       <c r="M7" t="n">
-        <v>173.5762393840509</v>
+        <v>173.576239384051</v>
       </c>
       <c r="N7" t="n">
-        <v>169.4489843734693</v>
+        <v>169.4489843734694</v>
       </c>
       <c r="O7" t="n">
         <v>156.513563181768</v>
       </c>
       <c r="P7" t="n">
-        <v>133.9243918555595</v>
+        <v>133.9243918555596</v>
       </c>
       <c r="Q7" t="n">
-        <v>92.72230707919118</v>
+        <v>92.72230707919121</v>
       </c>
       <c r="R7" t="n">
-        <v>49.78878849350553</v>
+        <v>49.78878849350555</v>
       </c>
       <c r="S7" t="n">
         <v>19.29743379337851</v>
       </c>
       <c r="T7" t="n">
-        <v>4.731243548715649</v>
+        <v>4.731243548715651</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06039885381339134</v>
+        <v>0.06039885381339136</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31518,43 +31518,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767379</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31597,10 +31597,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31609,7 +31609,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
         <v>509.0653662040588</v>
@@ -31618,25 +31618,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31679,7 +31679,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31694,10 +31694,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31709,13 +31709,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31849,16 +31849,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>539.0475940357389</v>
       </c>
       <c r="P12" t="n">
-        <v>354.9153144485699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -32092,7 +32092,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>363.5371514786841</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32101,7 +32101,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32329,13 +32329,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>163.1438255932938</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32566,13 +32566,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>154.5219885631796</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32803,13 +32803,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>163.1438255932938</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33040,10 +33040,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>390.1398273256871</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33274,16 +33274,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>369.1789913099997</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33511,16 +33511,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>228.3420541567482</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33669,7 +33669,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159419</v>
       </c>
       <c r="O35" t="n">
         <v>926.5868626460027</v>
@@ -33751,16 +33751,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>353.130074847795</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33915,7 +33915,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -33988,16 +33988,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>353.130074847795</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34134,7 +34134,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817572</v>
       </c>
       <c r="L41" t="n">
         <v>867.846407116256</v>
@@ -34149,7 +34149,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
         <v>593.8732233669223</v>
@@ -34459,10 +34459,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>426.9501404413636</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34471,7 +34471,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.37304427622132</v>
+        <v>28.37304427622129</v>
       </c>
       <c r="K2" t="n">
-        <v>93.77486694836671</v>
+        <v>93.77486694836665</v>
       </c>
       <c r="L2" t="n">
-        <v>153.6105215176175</v>
+        <v>153.6105215176174</v>
       </c>
       <c r="M2" t="n">
-        <v>202.9106335187888</v>
+        <v>202.9106335187887</v>
       </c>
       <c r="N2" t="n">
-        <v>210.8543522095306</v>
+        <v>210.8543522095305</v>
       </c>
       <c r="O2" t="n">
-        <v>185.633824809962</v>
+        <v>185.6338248099619</v>
       </c>
       <c r="P2" t="n">
         <v>123.5846788678514</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.14760702288314</v>
+        <v>44.14760702288308</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,19 +34777,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>96.89877181692334</v>
       </c>
       <c r="K3" t="n">
-        <v>75.3394190227234</v>
+        <v>75.33941902272335</v>
       </c>
       <c r="L3" t="n">
-        <v>148.0935919490979</v>
+        <v>148.0935919490978</v>
       </c>
       <c r="M3" t="n">
-        <v>263.3828147651809</v>
+        <v>192.3706287743297</v>
       </c>
       <c r="N3" t="n">
-        <v>237.902879510971</v>
+        <v>212.0162936848984</v>
       </c>
       <c r="O3" t="n">
         <v>171.5092504021679</v>
@@ -34798,7 +34798,7 @@
         <v>118.122944229665</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.53862929141516</v>
+        <v>28.53862929141513</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34868,16 +34868,16 @@
         <v>213.0795574814113</v>
       </c>
       <c r="N4" t="n">
-        <v>213.5025133979572</v>
+        <v>213.5025133979571</v>
       </c>
       <c r="O4" t="n">
         <v>181.0260512289087</v>
       </c>
       <c r="P4" t="n">
-        <v>130.3030555148432</v>
+        <v>131.1407951653962</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.517230266009406</v>
+        <v>5.679490615455626</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.470283312177</v>
+        <v>28.47028331217709</v>
       </c>
       <c r="K5" t="n">
-        <v>93.92060305664455</v>
+        <v>93.92060305664467</v>
       </c>
       <c r="L5" t="n">
-        <v>153.7913200468043</v>
+        <v>153.7913200468045</v>
       </c>
       <c r="M5" t="n">
-        <v>203.1118067186563</v>
+        <v>203.1118067186565</v>
       </c>
       <c r="N5" t="n">
-        <v>211.058780602092</v>
+        <v>211.0587806020922</v>
       </c>
       <c r="O5" t="n">
-        <v>185.826860744151</v>
+        <v>185.8268607441512</v>
       </c>
       <c r="P5" t="n">
-        <v>123.7494305716376</v>
+        <v>123.7494305716377</v>
       </c>
       <c r="Q5" t="n">
-        <v>44.27132869117347</v>
+        <v>44.27132869117358</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>97.32166909127275</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>75.43840481763038</v>
+        <v>75.43840481763047</v>
       </c>
       <c r="L6" t="n">
-        <v>148.2266905659561</v>
+        <v>148.2266905659562</v>
       </c>
       <c r="M6" t="n">
-        <v>192.5259485823472</v>
+        <v>192.5259485823473</v>
       </c>
       <c r="N6" t="n">
-        <v>212.1757243460656</v>
+        <v>212.1757243460657</v>
       </c>
       <c r="O6" t="n">
-        <v>171.655098309828</v>
+        <v>171.6550983098281</v>
       </c>
       <c r="P6" t="n">
-        <v>118.2400000337409</v>
+        <v>118.240000033741</v>
       </c>
       <c r="Q6" t="n">
-        <v>28.61687799649633</v>
+        <v>125.9385470877688</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,25 +35096,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>106.3800667966405</v>
+        <v>106.3800667966406</v>
       </c>
       <c r="L7" t="n">
         <v>192.2171678043497</v>
       </c>
       <c r="M7" t="n">
-        <v>213.1601163458915</v>
+        <v>213.1601163458916</v>
       </c>
       <c r="N7" t="n">
-        <v>213.5811567526979</v>
+        <v>213.581156752698</v>
       </c>
       <c r="O7" t="n">
         <v>181.0986910958077</v>
       </c>
       <c r="P7" t="n">
-        <v>131.202951120453</v>
+        <v>131.2029511204531</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.560263827496797</v>
+        <v>6.560263827496826</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313262</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N9" t="n">
-        <v>640.5848321000387</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
         <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>403.6964311400517</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308545</v>
+        <v>255.4201198419603</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
         <v>278.0112915831069</v>
@@ -35342,7 +35342,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
         <v>262.6644876295069</v>
@@ -35351,7 +35351,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35497,16 +35497,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>396.4513495912944</v>
       </c>
       <c r="P12" t="n">
-        <v>220.9409070342396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35740,7 +35740,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>220.9409070342396</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35749,7 +35749,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35977,13 +35977,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>20.54758114884936</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36214,13 +36214,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>20.54758114884936</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36451,13 +36451,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>20.54758114884936</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36688,10 +36688,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36922,16 +36922,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>226.5827468655553</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37159,16 +37159,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>97.00034207341486</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37317,7 +37317,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819351</v>
       </c>
       <c r="O35" t="n">
         <v>696.488651224316</v>
@@ -37399,16 +37399,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>219.1556674334648</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37563,7 +37563,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37636,16 +37636,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>219.1556674334648</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37782,7 +37782,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367767</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
@@ -37797,7 +37797,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
         <v>371.5675334924728</v>
@@ -38107,10 +38107,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>295.6084283580303</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38119,7 +38119,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
